--- a/Documentação/Sprint 4/Dashboard Sprint4.xlsx
+++ b/Documentação/Sprint 4/Dashboard Sprint4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{56CCD28B-314B-4A92-864F-0BA2A7D1FCAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1709806-59D8-49EE-BBEA-679D2A6BE5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Roteiro" sheetId="3" r:id="rId1"/>
@@ -21,10 +21,19 @@
     <definedName name="Resultado">DadosDoRoteiro[Resultado]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dados do Roteiro'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -218,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -698,10 +707,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,60 +787,60 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Ênfase1" xfId="24" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="25" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="26" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="11" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="24" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="25" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="26" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="16" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="18" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="17" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="23" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="17" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="23" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="11" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="14" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="12" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moeda" xfId="8" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moeda [0]" xfId="9" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Nota" xfId="20" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem" xfId="10" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="12" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="10" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Separador de milhares [0]" xfId="7" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="19" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="18" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
@@ -1095,7 +1104,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8277225" y="885825"/>
-          <a:ext cx="342900" cy="4386263"/>
+          <a:ext cx="342900" cy="4195763"/>
           <a:chOff x="7515225" y="885825"/>
           <a:chExt cx="342900" cy="4386263"/>
         </a:xfrm>
@@ -1227,7 +1236,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5429250" y="885825"/>
-          <a:ext cx="342900" cy="4386263"/>
+          <a:ext cx="342900" cy="4195763"/>
           <a:chOff x="7515225" y="885825"/>
           <a:chExt cx="342900" cy="4386263"/>
         </a:xfrm>
@@ -1655,7 +1664,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,12 +1863,12 @@
       <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1943,7 +1952,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" t="str">
         <f t="array" ref="B3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B3))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve"> - Responsável:  
@@ -3881,142 +3890,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>

--- a/Documentação/Sprint 4/Dashboard Sprint4.xlsx
+++ b/Documentação/Sprint 4/Dashboard Sprint4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1709806-59D8-49EE-BBEA-679D2A6BE5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15D1AA-0A29-4014-8C2F-0CBB7B84603D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Roteiro" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Crie um Roteiro Ágil inserindo marcos ou atividades importantes na tabela Dados do Roteiro nesta planilha.
 O título desta planilha está na célula B1. 
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>Tarefa</t>
+  </si>
+  <si>
+    <t>UC7a, UC7b - Documentação</t>
+  </si>
+  <si>
+    <t>Apagar branches não usados</t>
+  </si>
+  <si>
+    <t>RESTful API</t>
+  </si>
+  <si>
+    <t>Bárbara, Ana</t>
   </si>
 </sst>
 </file>
@@ -749,7 +761,7 @@
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -757,32 +769,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -792,6 +783,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -844,6 +859,18 @@
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -923,18 +950,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1026,8 +1041,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1087,7 +1102,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1219,7 +1234,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1385,10 +1400,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B54589A1-4340-41B9-AB7F-21BF2341E0D1}" name="DadosDoRoteiro_2" displayName="DadosDoRoteiro_2" ref="A1:D11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D11" xr:uid="{C1B53D2A-A6C3-4D99-91DB-4F8433EFAD85}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{9BC31315-9A30-4F1C-80DB-8A1E2AFA76A9}" uniqueName="5" name="Meta" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{0CDE8D7F-4E64-46FA-96DD-C166D94FC640}" uniqueName="2" name="Marco ou Atividade" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{CA9AAE9A-6617-4550-BAA1-C4EF6F2AEC56}" uniqueName="3" name="Prioridade" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{9933D81E-9075-4557-8F64-4EE38A353C41}" uniqueName="4" name="Resultado" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{9BC31315-9A30-4F1C-80DB-8A1E2AFA76A9}" uniqueName="5" name="Meta" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0CDE8D7F-4E64-46FA-96DD-C166D94FC640}" uniqueName="2" name="Marco ou Atividade" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CA9AAE9A-6617-4550-BAA1-C4EF6F2AEC56}" uniqueName="3" name="Prioridade" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9933D81E-9075-4557-8F64-4EE38A353C41}" uniqueName="4" name="Resultado" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1663,13 +1678,13 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="2.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
@@ -1679,7 +1694,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1687,7 +1702,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1708,7 +1723,7 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1729,7 +1744,7 @@
       <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1787,40 +1802,58 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>UC7a, UC7b - Documentação - Responsável: Bárbara</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>Apagar branches não usados - Responsável: Bárbara</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>RESTful API - Responsável: Bárbara, Ana</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1860,15 +1893,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1879,7 +1912,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Atual, Curto Prazo, Futuro, Concluído"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12 F7:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12 F11:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 – Alto, 2 – Médio, 3 – Baixo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1901,1912 +1934,1912 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="2.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" t="str">
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="str">
         <f t="array" ref="B3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B3))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável:  
+        <v xml:space="preserve">UC7a, UC7b - Documentação - Responsável: Bárbara 
 </v>
       </c>
-      <c r="D3" s="5" t="str">
+      <c r="D3" s="14" t="str">
         <f t="array" ref="D3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 09 - Responsável: Ana
 </v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="str">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="str">
         <f t="array" ref="F3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável: 
-</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="str">
+        <v/>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="str">
         <f t="array" ref="H3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="str">
+      <c r="B4" s="15" t="str">
         <f t="array" ref="B4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B4))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável:  
+        <v xml:space="preserve">Apagar branches não usados - Responsável: Bárbara 
 </v>
       </c>
-      <c r="D4" s="5" t="str">
+      <c r="D4" s="14" t="str">
         <f t="array" ref="D4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 10 - Responsável: Bárbara
 </v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="str">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="str">
         <f t="array" ref="F4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="str">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="str">
         <f t="array" ref="H4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável: 
+        <v/>
+      </c>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="str">
+        <f t="array" ref="B5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B5))))&amp;CHAR(10),"")</f>
+        <v xml:space="preserve"> - Responsável:  
 </v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f t="array" ref="B5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B5))))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="D5" s="5" t="str">
+      <c r="D5" s="14" t="str">
         <f t="array" ref="D5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 11 - Responsável: Caroline
 </v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="str">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="str">
         <f t="array" ref="F5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="str">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="str">
         <f t="array" ref="H5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="str">
+      <c r="B6" s="15" t="str">
         <f t="array" ref="B6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B6))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D6" s="5" t="str">
+      <c r="D6" s="14" t="str">
         <f t="array" ref="D6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 12 - Responsável: Marta
 </v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="str">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="str">
         <f t="array" ref="F6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="str">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="str">
         <f t="array" ref="H6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="str">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="str">
         <f t="array" ref="B7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B7))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D7" s="5" t="str">
+      <c r="D7" s="14" t="str">
         <f t="array" ref="D7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
+        <v xml:space="preserve">RESTful API - Responsável: Bárbara, Ana
+</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="str">
+        <f t="array" ref="F7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14" t="str">
+        <f t="array" ref="H7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="str">
+        <f t="array" ref="B8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B8))))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="array" ref="D8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="str">
-        <f t="array" ref="F7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="str">
-        <f t="array" ref="H7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="str">
-        <f t="array" ref="B8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B8))))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="5" t="str">
-        <f t="array" ref="D8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="str">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="str">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="str">
         <f t="array" ref="H8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="str">
+      <c r="B9" s="15" t="str">
         <f t="array" ref="B9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B9))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="14" t="str">
         <f t="array" ref="D9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="str">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="str">
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="str">
         <f t="array" ref="H9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
+      <c r="B10" s="15" t="str">
         <f t="array" ref="B10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B10))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="14" t="str">
         <f t="array" ref="D10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="str">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="str">
         <f t="array" ref="F10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="str">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="str">
         <f t="array" ref="H10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
+      <c r="B11" s="15" t="str">
         <f t="array" ref="B11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B11))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="14" t="str">
         <f t="array" ref="D11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="str">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="str">
         <f t="array" ref="F11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="str">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="str">
         <f t="array" ref="H11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
+      <c r="B12" s="15" t="str">
         <f t="array" ref="B12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B12))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="14" t="str">
         <f t="array" ref="D12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="str">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="str">
         <f t="array" ref="F12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="str">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="str">
         <f t="array" ref="H12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
+      <c r="B13" s="15" t="str">
         <f t="array" ref="B13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B13))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="14" t="str">
         <f t="array" ref="D13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="str">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="str">
         <f t="array" ref="F13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="str">
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="str">
         <f t="array" ref="H13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
+      <c r="B14" s="15" t="str">
         <f t="array" ref="B14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B14))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="14" t="str">
         <f t="array" ref="D14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="str">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="str">
         <f t="array" ref="F14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="str">
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="str">
         <f t="array" ref="H14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
+      <c r="B15" s="15" t="str">
         <f t="array" ref="B15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B15))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="14" t="str">
         <f t="array" ref="D15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="str">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="str">
         <f t="array" ref="F15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="str">
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="str">
         <f t="array" ref="H15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
+      <c r="B16" s="15" t="str">
         <f t="array" ref="B16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B16))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="14" t="str">
         <f t="array" ref="D16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="str">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="str">
         <f t="array" ref="F16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="str">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="str">
         <f t="array" ref="H16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
+      <c r="B17" s="15" t="str">
         <f t="array" ref="B17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B17))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="14" t="str">
         <f t="array" ref="D17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="str">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="str">
         <f t="array" ref="F17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="str">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="str">
         <f t="array" ref="H17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
+      <c r="B18" s="15" t="str">
         <f t="array" ref="B18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B18))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="14" t="str">
         <f t="array" ref="D18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="str">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="str">
         <f t="array" ref="F18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="str">
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="str">
         <f t="array" ref="H18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
+      <c r="B19" s="15" t="str">
         <f t="array" ref="B19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B19))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="14" t="str">
         <f t="array" ref="D19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="str">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="str">
         <f t="array" ref="F19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="str">
+      <c r="G19" s="14"/>
+      <c r="H19" s="14" t="str">
         <f t="array" ref="H19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
+      <c r="B20" s="15" t="str">
         <f t="array" ref="B20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B20))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="14" t="str">
         <f t="array" ref="D20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="str">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="str">
         <f t="array" ref="F20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="str">
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="str">
         <f t="array" ref="H20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" t="str">
+      <c r="A21" s="10"/>
+      <c r="B21" s="15" t="str">
         <f t="array" ref="B21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B21))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D21" s="5" t="str">
+      <c r="D21" s="14" t="str">
         <f t="array" ref="D21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F21" s="5" t="str">
+      <c r="F21" s="14" t="str">
         <f t="array" ref="F21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="14" t="str">
         <f t="array" ref="H21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
+      <c r="B22" s="15" t="str">
         <f t="array" ref="B22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B22))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D22" s="5" t="str">
+      <c r="D22" s="14" t="str">
         <f t="array" ref="D22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F22" s="5" t="str">
+      <c r="F22" s="14" t="str">
         <f t="array" ref="F22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="14" t="str">
         <f t="array" ref="H22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
+      <c r="B23" s="15" t="str">
         <f t="array" ref="B23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B23))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D23" s="5" t="str">
+      <c r="D23" s="14" t="str">
         <f t="array" ref="D23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F23" s="5" t="str">
+      <c r="F23" s="14" t="str">
         <f t="array" ref="F23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="14" t="str">
         <f t="array" ref="H23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
+      <c r="B24" s="15" t="str">
         <f t="array" ref="B24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B24))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D24" s="5" t="str">
+      <c r="D24" s="14" t="str">
         <f t="array" ref="D24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F24" s="5" t="str">
+      <c r="F24" s="14" t="str">
         <f t="array" ref="F24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="14" t="str">
         <f t="array" ref="H24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
+      <c r="B25" s="15" t="str">
         <f t="array" ref="B25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B25))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D25" s="5" t="str">
+      <c r="D25" s="14" t="str">
         <f t="array" ref="D25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F25" s="5" t="str">
+      <c r="F25" s="14" t="str">
         <f t="array" ref="F25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="H25" s="14" t="str">
         <f t="array" ref="H25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
+      <c r="B26" s="15" t="str">
         <f t="array" ref="B26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B26))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D26" s="5" t="str">
+      <c r="D26" s="14" t="str">
         <f t="array" ref="D26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F26" s="5" t="str">
+      <c r="F26" s="14" t="str">
         <f t="array" ref="F26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="14" t="str">
         <f t="array" ref="H26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
+      <c r="B27" s="15" t="str">
         <f t="array" ref="B27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B27))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="14" t="str">
         <f t="array" ref="D27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F27" s="5" t="str">
+      <c r="F27" s="14" t="str">
         <f t="array" ref="F27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="H27" s="14" t="str">
         <f t="array" ref="H27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" t="str">
+      <c r="B28" s="15" t="str">
         <f t="array" ref="B28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B28))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D28" s="14" t="str">
         <f t="array" ref="D28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F28" s="5" t="str">
+      <c r="F28" s="14" t="str">
         <f t="array" ref="F28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="H28" s="14" t="str">
         <f t="array" ref="H28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="str">
+      <c r="B29" s="15" t="str">
         <f t="array" ref="B29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B29))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="D29" s="14" t="str">
         <f t="array" ref="D29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F29" s="5" t="str">
+      <c r="F29" s="14" t="str">
         <f t="array" ref="F29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H29" s="14" t="str">
         <f t="array" ref="H29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
+      <c r="B30" s="15" t="str">
         <f t="array" ref="B30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B30))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D30" s="14" t="str">
         <f t="array" ref="D30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F30" s="5" t="str">
+      <c r="F30" s="14" t="str">
         <f t="array" ref="F30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="H30" s="14" t="str">
         <f t="array" ref="H30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
+      <c r="B31" s="15" t="str">
         <f t="array" ref="B31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B31))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="14" t="str">
         <f t="array" ref="D31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F31" s="5" t="str">
+      <c r="F31" s="14" t="str">
         <f t="array" ref="F31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="14" t="str">
         <f t="array" ref="H31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" t="str">
+      <c r="B32" s="15" t="str">
         <f t="array" ref="B32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B32))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" s="14" t="str">
         <f t="array" ref="D32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F32" s="5" t="str">
+      <c r="F32" s="14" t="str">
         <f t="array" ref="F32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H32" s="14" t="str">
         <f t="array" ref="H32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="str">
+      <c r="B33" s="15" t="str">
         <f t="array" ref="B33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B33))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="14" t="str">
         <f t="array" ref="D33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F33" s="5" t="str">
+      <c r="F33" s="14" t="str">
         <f t="array" ref="F33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="H33" s="14" t="str">
         <f t="array" ref="H33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="str">
+      <c r="B34" s="15" t="str">
         <f t="array" ref="B34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B34))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="14" t="str">
         <f t="array" ref="D34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F34" s="5" t="str">
+      <c r="F34" s="14" t="str">
         <f t="array" ref="F34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="H34" s="14" t="str">
         <f t="array" ref="H34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="str">
+      <c r="B35" s="15" t="str">
         <f t="array" ref="B35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B35))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" s="14" t="str">
         <f t="array" ref="D35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F35" s="5" t="str">
+      <c r="F35" s="14" t="str">
         <f t="array" ref="F35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H35" s="14" t="str">
         <f t="array" ref="H35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="str">
+      <c r="B36" s="15" t="str">
         <f t="array" ref="B36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B36))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" s="14" t="str">
         <f t="array" ref="D36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F36" s="5" t="str">
+      <c r="F36" s="14" t="str">
         <f t="array" ref="F36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="14" t="str">
         <f t="array" ref="H36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="str">
+      <c r="B37" s="15" t="str">
         <f t="array" ref="B37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B37))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" s="14" t="str">
         <f t="array" ref="D37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F37" s="5" t="str">
+      <c r="F37" s="14" t="str">
         <f t="array" ref="F37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H37" s="5" t="str">
+      <c r="H37" s="14" t="str">
         <f t="array" ref="H37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="str">
+      <c r="B38" s="15" t="str">
         <f t="array" ref="B38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B38))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D38" s="5" t="str">
+      <c r="D38" s="14" t="str">
         <f t="array" ref="D38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F38" s="5" t="str">
+      <c r="F38" s="14" t="str">
         <f t="array" ref="F38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H38" s="14" t="str">
         <f t="array" ref="H38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="str">
+      <c r="B39" s="15" t="str">
         <f t="array" ref="B39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B39))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D39" s="5" t="str">
+      <c r="D39" s="14" t="str">
         <f t="array" ref="D39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F39" s="5" t="str">
+      <c r="F39" s="14" t="str">
         <f t="array" ref="F39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H39" s="14" t="str">
         <f t="array" ref="H39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="str">
+      <c r="B40" s="15" t="str">
         <f t="array" ref="B40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B40))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D40" s="5" t="str">
+      <c r="D40" s="14" t="str">
         <f t="array" ref="D40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F40" s="5" t="str">
+      <c r="F40" s="14" t="str">
         <f t="array" ref="F40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H40" s="14" t="str">
         <f t="array" ref="H40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="str">
+      <c r="B41" s="15" t="str">
         <f t="array" ref="B41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B41))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D41" s="5" t="str">
+      <c r="D41" s="14" t="str">
         <f t="array" ref="D41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F41" s="5" t="str">
+      <c r="F41" s="14" t="str">
         <f t="array" ref="F41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="14" t="str">
         <f t="array" ref="H41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="str">
+      <c r="B42" s="15" t="str">
         <f t="array" ref="B42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B42))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D42" s="5" t="str">
+      <c r="D42" s="14" t="str">
         <f t="array" ref="D42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F42" s="5" t="str">
+      <c r="F42" s="14" t="str">
         <f t="array" ref="F42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H42" s="14" t="str">
         <f t="array" ref="H42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="str">
+      <c r="B43" s="15" t="str">
         <f t="array" ref="B43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B43))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D43" s="5" t="str">
+      <c r="D43" s="14" t="str">
         <f t="array" ref="D43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F43" s="5" t="str">
+      <c r="F43" s="14" t="str">
         <f t="array" ref="F43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H43" s="14" t="str">
         <f t="array" ref="H43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="str">
+      <c r="B44" s="15" t="str">
         <f t="array" ref="B44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B44))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D44" s="5" t="str">
+      <c r="D44" s="14" t="str">
         <f t="array" ref="D44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F44" s="5" t="str">
+      <c r="F44" s="14" t="str">
         <f t="array" ref="F44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H44" s="14" t="str">
         <f t="array" ref="H44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="str">
+      <c r="B45" s="15" t="str">
         <f t="array" ref="B45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B45))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D45" s="5" t="str">
+      <c r="D45" s="14" t="str">
         <f t="array" ref="D45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F45" s="5" t="str">
+      <c r="F45" s="14" t="str">
         <f t="array" ref="F45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H45" s="14" t="str">
         <f t="array" ref="H45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="str">
+      <c r="B46" s="15" t="str">
         <f t="array" ref="B46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B46))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D46" s="5" t="str">
+      <c r="D46" s="14" t="str">
         <f t="array" ref="D46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F46" s="5" t="str">
+      <c r="F46" s="14" t="str">
         <f t="array" ref="F46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="H46" s="14" t="str">
         <f t="array" ref="H46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="str">
+      <c r="B47" s="15" t="str">
         <f t="array" ref="B47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B47))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D47" s="5" t="str">
+      <c r="D47" s="14" t="str">
         <f t="array" ref="D47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F47" s="5" t="str">
+      <c r="F47" s="14" t="str">
         <f t="array" ref="F47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="H47" s="14" t="str">
         <f t="array" ref="H47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="str">
+      <c r="B48" s="15" t="str">
         <f t="array" ref="B48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B48))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D48" s="5" t="str">
+      <c r="D48" s="14" t="str">
         <f t="array" ref="D48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F48" s="5" t="str">
+      <c r="F48" s="14" t="str">
         <f t="array" ref="F48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="H48" s="14" t="str">
         <f t="array" ref="H48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="str">
+      <c r="B49" s="15" t="str">
         <f t="array" ref="B49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B49))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D49" s="5" t="str">
+      <c r="D49" s="14" t="str">
         <f t="array" ref="D49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F49" s="5" t="str">
+      <c r="F49" s="14" t="str">
         <f t="array" ref="F49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="H49" s="14" t="str">
         <f t="array" ref="H49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="str">
+      <c r="B50" s="15" t="str">
         <f t="array" ref="B50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B50))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D50" s="5" t="str">
+      <c r="D50" s="14" t="str">
         <f t="array" ref="D50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F50" s="5" t="str">
+      <c r="F50" s="14" t="str">
         <f t="array" ref="F50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="H50" s="14" t="str">
         <f t="array" ref="H50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="str">
+      <c r="B51" s="15" t="str">
         <f t="array" ref="B51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B51))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D51" s="5" t="str">
+      <c r="D51" s="14" t="str">
         <f t="array" ref="D51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F51" s="5" t="str">
+      <c r="F51" s="14" t="str">
         <f t="array" ref="F51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="H51" s="14" t="str">
         <f t="array" ref="H51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
+      <c r="B52" s="15" t="str">
         <f t="array" ref="B52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B52))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D52" s="5" t="str">
+      <c r="D52" s="14" t="str">
         <f t="array" ref="D52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F52" s="5" t="str">
+      <c r="F52" s="14" t="str">
         <f t="array" ref="F52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="H52" s="14" t="str">
         <f t="array" ref="H52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="str">
+      <c r="B53" s="15" t="str">
         <f t="array" ref="B53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B53))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D53" s="5" t="str">
+      <c r="D53" s="14" t="str">
         <f t="array" ref="D53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F53" s="5" t="str">
+      <c r="F53" s="14" t="str">
         <f t="array" ref="F53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H53" s="14" t="str">
         <f t="array" ref="H53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="str">
+      <c r="B54" s="15" t="str">
         <f t="array" ref="B54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B54))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D54" s="5" t="str">
+      <c r="D54" s="14" t="str">
         <f t="array" ref="D54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F54" s="5" t="str">
+      <c r="F54" s="14" t="str">
         <f t="array" ref="F54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="H54" s="14" t="str">
         <f t="array" ref="H54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="str">
+      <c r="B55" s="15" t="str">
         <f t="array" ref="B55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B55))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D55" s="5" t="str">
+      <c r="D55" s="14" t="str">
         <f t="array" ref="D55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F55" s="5" t="str">
+      <c r="F55" s="14" t="str">
         <f t="array" ref="F55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H55" s="14" t="str">
         <f t="array" ref="H55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="str">
+      <c r="B56" s="15" t="str">
         <f t="array" ref="B56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B56))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D56" s="5" t="str">
+      <c r="D56" s="14" t="str">
         <f t="array" ref="D56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F56" s="5" t="str">
+      <c r="F56" s="14" t="str">
         <f t="array" ref="F56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="H56" s="14" t="str">
         <f t="array" ref="H56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="str">
+      <c r="B57" s="15" t="str">
         <f t="array" ref="B57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B57))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D57" s="5" t="str">
+      <c r="D57" s="14" t="str">
         <f t="array" ref="D57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F57" s="5" t="str">
+      <c r="F57" s="14" t="str">
         <f t="array" ref="F57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H57" s="14" t="str">
         <f t="array" ref="H57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="str">
+      <c r="B58" s="15" t="str">
         <f t="array" ref="B58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B58))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D58" s="5" t="str">
+      <c r="D58" s="14" t="str">
         <f t="array" ref="D58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F58" s="5" t="str">
+      <c r="F58" s="14" t="str">
         <f t="array" ref="F58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="H58" s="14" t="str">
         <f t="array" ref="H58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="str">
+      <c r="B59" s="15" t="str">
         <f t="array" ref="B59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B59))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D59" s="5" t="str">
+      <c r="D59" s="14" t="str">
         <f t="array" ref="D59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F59" s="5" t="str">
+      <c r="F59" s="14" t="str">
         <f t="array" ref="F59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="H59" s="14" t="str">
         <f t="array" ref="H59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="str">
+      <c r="B60" s="15" t="str">
         <f t="array" ref="B60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B60))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D60" s="5" t="str">
+      <c r="D60" s="14" t="str">
         <f t="array" ref="D60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F60" s="5" t="str">
+      <c r="F60" s="14" t="str">
         <f t="array" ref="F60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H60" s="14" t="str">
         <f t="array" ref="H60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="str">
+      <c r="B61" s="15" t="str">
         <f t="array" ref="B61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B61))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D61" s="5" t="str">
+      <c r="D61" s="14" t="str">
         <f t="array" ref="D61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F61" s="5" t="str">
+      <c r="F61" s="14" t="str">
         <f t="array" ref="F61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H61" s="14" t="str">
         <f t="array" ref="H61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="str">
+      <c r="B62" s="15" t="str">
         <f t="array" ref="B62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B62))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D62" s="5" t="str">
+      <c r="D62" s="14" t="str">
         <f t="array" ref="D62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F62" s="5" t="str">
+      <c r="F62" s="14" t="str">
         <f t="array" ref="F62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H62" s="14" t="str">
         <f t="array" ref="H62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="str">
+      <c r="B63" s="15" t="str">
         <f t="array" ref="B63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B63))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D63" s="5" t="str">
+      <c r="D63" s="14" t="str">
         <f t="array" ref="D63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F63" s="5" t="str">
+      <c r="F63" s="14" t="str">
         <f t="array" ref="F63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H63" s="14" t="str">
         <f t="array" ref="H63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="str">
+      <c r="B64" s="15" t="str">
         <f t="array" ref="B64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B64))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D64" s="5" t="str">
+      <c r="D64" s="14" t="str">
         <f t="array" ref="D64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F64" s="5" t="str">
+      <c r="F64" s="14" t="str">
         <f t="array" ref="F64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H64" s="14" t="str">
         <f t="array" ref="H64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="str">
+      <c r="B65" s="15" t="str">
         <f t="array" ref="B65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B65))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D65" s="5" t="str">
+      <c r="D65" s="14" t="str">
         <f t="array" ref="D65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F65" s="5" t="str">
+      <c r="F65" s="14" t="str">
         <f t="array" ref="F65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H65" s="14" t="str">
         <f t="array" ref="H65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="str">
+      <c r="B66" s="15" t="str">
         <f t="array" ref="B66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B66))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D66" s="5" t="str">
+      <c r="D66" s="14" t="str">
         <f t="array" ref="D66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F66" s="5" t="str">
+      <c r="F66" s="14" t="str">
         <f t="array" ref="F66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H66" s="14" t="str">
         <f t="array" ref="H66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="str">
+      <c r="B67" s="15" t="str">
         <f t="array" ref="B67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B67))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D67" s="5" t="str">
+      <c r="D67" s="14" t="str">
         <f t="array" ref="D67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F67" s="5" t="str">
+      <c r="F67" s="14" t="str">
         <f t="array" ref="F67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H67" s="5" t="str">
+      <c r="H67" s="14" t="str">
         <f t="array" ref="H67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="str">
+      <c r="B68" s="15" t="str">
         <f t="array" ref="B68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B68))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D68" s="5" t="str">
+      <c r="D68" s="14" t="str">
         <f t="array" ref="D68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F68" s="5" t="str">
+      <c r="F68" s="14" t="str">
         <f t="array" ref="F68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H68" s="14" t="str">
         <f t="array" ref="H68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="str">
+      <c r="B69" s="15" t="str">
         <f t="array" ref="B69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B69))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D69" s="5" t="str">
+      <c r="D69" s="14" t="str">
         <f t="array" ref="D69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F69" s="5" t="str">
+      <c r="F69" s="14" t="str">
         <f t="array" ref="F69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H69" s="14" t="str">
         <f t="array" ref="H69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="str">
+      <c r="B70" s="15" t="str">
         <f t="array" ref="B70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B70))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D70" s="5" t="str">
+      <c r="D70" s="14" t="str">
         <f t="array" ref="D70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F70" s="5" t="str">
+      <c r="F70" s="14" t="str">
         <f t="array" ref="F70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H70" s="14" t="str">
         <f t="array" ref="H70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="str">
+      <c r="B71" s="15" t="str">
         <f t="array" ref="B71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B71))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D71" s="5" t="str">
+      <c r="D71" s="14" t="str">
         <f t="array" ref="D71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F71" s="5" t="str">
+      <c r="F71" s="14" t="str">
         <f t="array" ref="F71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H71" s="14" t="str">
         <f t="array" ref="H71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="str">
+      <c r="B72" s="15" t="str">
         <f t="array" ref="B72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B72))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D72" s="5" t="str">
+      <c r="D72" s="14" t="str">
         <f t="array" ref="D72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F72" s="5" t="str">
+      <c r="F72" s="14" t="str">
         <f t="array" ref="F72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="H72" s="14" t="str">
         <f t="array" ref="H72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="str">
+      <c r="B73" s="15" t="str">
         <f t="array" ref="B73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B73))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D73" s="5" t="str">
+      <c r="D73" s="14" t="str">
         <f t="array" ref="D73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F73" s="5" t="str">
+      <c r="F73" s="14" t="str">
         <f t="array" ref="F73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H73" s="14" t="str">
         <f t="array" ref="H73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="str">
+      <c r="B74" s="15" t="str">
         <f t="array" ref="B74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B74))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D74" s="5" t="str">
+      <c r="D74" s="14" t="str">
         <f t="array" ref="D74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F74" s="5" t="str">
+      <c r="F74" s="14" t="str">
         <f t="array" ref="F74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H74" s="14" t="str">
         <f t="array" ref="H74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="str">
+      <c r="B75" s="15" t="str">
         <f t="array" ref="B75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B75))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D75" s="5" t="str">
+      <c r="D75" s="14" t="str">
         <f t="array" ref="D75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F75" s="5" t="str">
+      <c r="F75" s="14" t="str">
         <f t="array" ref="F75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H75" s="14" t="str">
         <f t="array" ref="H75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="str">
+      <c r="B76" s="15" t="str">
         <f t="array" ref="B76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B76))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D76" s="5" t="str">
+      <c r="D76" s="14" t="str">
         <f t="array" ref="D76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F76" s="5" t="str">
+      <c r="F76" s="14" t="str">
         <f t="array" ref="F76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H76" s="14" t="str">
         <f t="array" ref="H76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="str">
+      <c r="B77" s="15" t="str">
         <f t="array" ref="B77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B77))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D77" s="5" t="str">
+      <c r="D77" s="14" t="str">
         <f t="array" ref="D77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F77" s="5" t="str">
+      <c r="F77" s="14" t="str">
         <f t="array" ref="F77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H77" s="14" t="str">
         <f t="array" ref="H77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="str">
+      <c r="B78" s="15" t="str">
         <f t="array" ref="B78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B78))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D78" s="5" t="str">
+      <c r="D78" s="14" t="str">
         <f t="array" ref="D78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F78" s="5" t="str">
+      <c r="F78" s="14" t="str">
         <f t="array" ref="F78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H78" s="14" t="str">
         <f t="array" ref="H78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="str">
+      <c r="B79" s="15" t="str">
         <f t="array" ref="B79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B79))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D79" s="5" t="str">
+      <c r="D79" s="14" t="str">
         <f t="array" ref="D79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F79" s="5" t="str">
+      <c r="F79" s="14" t="str">
         <f t="array" ref="F79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H79" s="14" t="str">
         <f t="array" ref="H79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="str">
+      <c r="B80" s="15" t="str">
         <f t="array" ref="B80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B80))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D80" s="5" t="str">
+      <c r="D80" s="14" t="str">
         <f t="array" ref="D80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F80" s="5" t="str">
+      <c r="F80" s="14" t="str">
         <f t="array" ref="F80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H80" s="14" t="str">
         <f t="array" ref="H80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" t="str">
+      <c r="B81" s="15" t="str">
         <f t="array" ref="B81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B81))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D81" s="5" t="str">
+      <c r="D81" s="14" t="str">
         <f t="array" ref="D81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F81" s="5" t="str">
+      <c r="F81" s="14" t="str">
         <f t="array" ref="F81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H81" s="14" t="str">
         <f t="array" ref="H81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" t="str">
+      <c r="B82" s="15" t="str">
         <f t="array" ref="B82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B82))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D82" s="5" t="str">
+      <c r="D82" s="14" t="str">
         <f t="array" ref="D82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F82" s="5" t="str">
+      <c r="F82" s="14" t="str">
         <f t="array" ref="F82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H82" s="14" t="str">
         <f t="array" ref="H82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" t="str">
+      <c r="B83" s="15" t="str">
         <f t="array" ref="B83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B83))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D83" s="5" t="str">
+      <c r="D83" s="14" t="str">
         <f t="array" ref="D83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F83" s="5" t="str">
+      <c r="F83" s="14" t="str">
         <f t="array" ref="F83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H83" s="14" t="str">
         <f t="array" ref="H83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" t="str">
+      <c r="B84" s="15" t="str">
         <f t="array" ref="B84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B84))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D84" s="5" t="str">
+      <c r="D84" s="14" t="str">
         <f t="array" ref="D84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F84" s="5" t="str">
+      <c r="F84" s="14" t="str">
         <f t="array" ref="F84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H84" s="14" t="str">
         <f t="array" ref="H84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" t="str">
+      <c r="B85" s="15" t="str">
         <f t="array" ref="B85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B85))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D85" s="5" t="str">
+      <c r="D85" s="14" t="str">
         <f t="array" ref="D85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F85" s="5" t="str">
+      <c r="F85" s="14" t="str">
         <f t="array" ref="F85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H85" s="14" t="str">
         <f t="array" ref="H85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="str">
+      <c r="B86" s="15" t="str">
         <f t="array" ref="B86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B86))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D86" s="5" t="str">
+      <c r="D86" s="14" t="str">
         <f t="array" ref="D86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F86" s="5" t="str">
+      <c r="F86" s="14" t="str">
         <f t="array" ref="F86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H86" s="14" t="str">
         <f t="array" ref="H86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="str">
+      <c r="B87" s="15" t="str">
         <f t="array" ref="B87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B87))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D87" s="5" t="str">
+      <c r="D87" s="14" t="str">
         <f t="array" ref="D87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F87" s="5" t="str">
+      <c r="F87" s="14" t="str">
         <f t="array" ref="F87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H87" s="14" t="str">
         <f t="array" ref="H87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" t="str">
+      <c r="B88" s="15" t="str">
         <f t="array" ref="B88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B88))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D88" s="5" t="str">
+      <c r="D88" s="14" t="str">
         <f t="array" ref="D88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F88" s="5" t="str">
+      <c r="F88" s="14" t="str">
         <f t="array" ref="F88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H88" s="14" t="str">
         <f t="array" ref="H88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" t="str">
+      <c r="B89" s="15" t="str">
         <f t="array" ref="B89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B89))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D89" s="5" t="str">
+      <c r="D89" s="14" t="str">
         <f t="array" ref="D89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F89" s="5" t="str">
+      <c r="F89" s="14" t="str">
         <f t="array" ref="F89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H89" s="14" t="str">
         <f t="array" ref="H89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="str">
+      <c r="B90" s="15" t="str">
         <f t="array" ref="B90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B90))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D90" s="5" t="str">
+      <c r="D90" s="14" t="str">
         <f t="array" ref="D90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F90" s="5" t="str">
+      <c r="F90" s="14" t="str">
         <f t="array" ref="F90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H90" s="14" t="str">
         <f t="array" ref="H90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="str">
+      <c r="B91" s="15" t="str">
         <f t="array" ref="B91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B91))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D91" s="5" t="str">
+      <c r="D91" s="14" t="str">
         <f t="array" ref="D91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F91" s="5" t="str">
+      <c r="F91" s="14" t="str">
         <f t="array" ref="F91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H91" s="14" t="str">
         <f t="array" ref="H91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" t="str">
+      <c r="B92" s="15" t="str">
         <f t="array" ref="B92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B92))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D92" s="5" t="str">
+      <c r="D92" s="14" t="str">
         <f t="array" ref="D92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F92" s="5" t="str">
+      <c r="F92" s="14" t="str">
         <f t="array" ref="F92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H92" s="14" t="str">
         <f t="array" ref="H92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" t="str">
+      <c r="B93" s="15" t="str">
         <f t="array" ref="B93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B93))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D93" s="5" t="str">
+      <c r="D93" s="14" t="str">
         <f t="array" ref="D93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F93" s="5" t="str">
+      <c r="F93" s="14" t="str">
         <f t="array" ref="F93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="H93" s="14" t="str">
         <f t="array" ref="H93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="str">
+      <c r="B94" s="15" t="str">
         <f t="array" ref="B94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B94))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D94" s="5" t="str">
+      <c r="D94" s="14" t="str">
         <f t="array" ref="D94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F94" s="5" t="str">
+      <c r="F94" s="14" t="str">
         <f t="array" ref="F94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H94" s="14" t="str">
         <f t="array" ref="H94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="str">
+      <c r="B95" s="15" t="str">
         <f t="array" ref="B95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B95))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D95" s="5" t="str">
+      <c r="D95" s="14" t="str">
         <f t="array" ref="D95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F95" s="5" t="str">
+      <c r="F95" s="14" t="str">
         <f t="array" ref="F95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="H95" s="14" t="str">
         <f t="array" ref="H95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" t="str">
+      <c r="B96" s="15" t="str">
         <f t="array" ref="B96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B96))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D96" s="5" t="str">
+      <c r="D96" s="14" t="str">
         <f t="array" ref="D96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F96" s="5" t="str">
+      <c r="F96" s="14" t="str">
         <f t="array" ref="F96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="H96" s="14" t="str">
         <f t="array" ref="H96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" t="str">
+      <c r="B97" s="15" t="str">
         <f t="array" ref="B97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B97))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D97" s="5" t="str">
+      <c r="D97" s="14" t="str">
         <f t="array" ref="D97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F97" s="5" t="str">
+      <c r="F97" s="14" t="str">
         <f t="array" ref="F97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="H97" s="14" t="str">
         <f t="array" ref="H97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" t="str">
+      <c r="B98" s="15" t="str">
         <f t="array" ref="B98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B98))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D98" s="5" t="str">
+      <c r="D98" s="14" t="str">
         <f t="array" ref="D98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F98" s="5" t="str">
+      <c r="F98" s="14" t="str">
         <f t="array" ref="F98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="H98" s="14" t="str">
         <f t="array" ref="H98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" t="str">
+      <c r="B99" s="15" t="str">
         <f t="array" ref="B99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B99))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D99" s="5" t="str">
+      <c r="D99" s="14" t="str">
         <f t="array" ref="D99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F99" s="5" t="str">
+      <c r="F99" s="14" t="str">
         <f t="array" ref="F99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="H99" s="14" t="str">
         <f t="array" ref="H99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" t="str">
+      <c r="B100" s="15" t="str">
         <f t="array" ref="B100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B100))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D100" s="5" t="str">
+      <c r="D100" s="14" t="str">
         <f t="array" ref="D100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F100" s="5" t="str">
+      <c r="F100" s="14" t="str">
         <f t="array" ref="F100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="H100" s="14" t="str">
         <f t="array" ref="H100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>ISNUMBER(SEARCH("Sem Alteração",$B3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>LEN($B3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D100">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>LEN($D3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F100">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>LEN($F3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H100">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>LEN($H3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>LEN($B3)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3849,7 +3882,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3890,142 +3923,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>

--- a/Documentação/Sprint 4/Dashboard Sprint4.xlsx
+++ b/Documentação/Sprint 4/Dashboard Sprint4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15D1AA-0A29-4014-8C2F-0CBB7B84603D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F285B7AD-A6A8-442B-A5D1-5A804C347492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
   <si>
     <t>Crie um Roteiro Ágil inserindo marcos ou atividades importantes na tabela Dados do Roteiro nesta planilha.
 O título desta planilha está na célula B1. 
@@ -222,16 +222,19 @@
     <t>Tarefa</t>
   </si>
   <si>
-    <t>UC7a, UC7b - Documentação</t>
-  </si>
-  <si>
-    <t>Apagar branches não usados</t>
-  </si>
-  <si>
-    <t>RESTful API</t>
-  </si>
-  <si>
     <t>Bárbara, Ana</t>
+  </si>
+  <si>
+    <t>RESTful API - service (04/03)</t>
+  </si>
+  <si>
+    <t>RESTful API (03/03)</t>
+  </si>
+  <si>
+    <t>Apagar branches não usados (03/03)</t>
+  </si>
+  <si>
+    <t>UC7a, UC7b - Documentação (02/03)</t>
   </si>
 </sst>
 </file>
@@ -781,9 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -807,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -859,18 +862,6 @@
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -950,6 +941,18 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1042,7 +1045,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1102,8 +1105,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>452438</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1234,8 +1237,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>452438</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1373,11 +1376,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G12">
-  <autoFilter ref="B2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G12">
-    <sortCondition ref="D3:D12"/>
-    <sortCondition ref="C3:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G13">
+  <autoFilter ref="B2:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G13">
+    <sortCondition ref="D3:D13"/>
+    <sortCondition ref="C3:C13"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Meta" totalsRowLabel="Total"/>
@@ -1400,10 +1403,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B54589A1-4340-41B9-AB7F-21BF2341E0D1}" name="DadosDoRoteiro_2" displayName="DadosDoRoteiro_2" ref="A1:D11" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D11" xr:uid="{C1B53D2A-A6C3-4D99-91DB-4F8433EFAD85}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{9BC31315-9A30-4F1C-80DB-8A1E2AFA76A9}" uniqueName="5" name="Meta" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{0CDE8D7F-4E64-46FA-96DD-C166D94FC640}" uniqueName="2" name="Marco ou Atividade" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CA9AAE9A-6617-4550-BAA1-C4EF6F2AEC56}" uniqueName="3" name="Prioridade" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9933D81E-9075-4557-8F64-4EE38A353C41}" uniqueName="4" name="Resultado" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{9BC31315-9A30-4F1C-80DB-8A1E2AFA76A9}" uniqueName="5" name="Meta" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0CDE8D7F-4E64-46FA-96DD-C166D94FC640}" uniqueName="2" name="Marco ou Atividade" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{CA9AAE9A-6617-4550-BAA1-C4EF6F2AEC56}" uniqueName="3" name="Prioridade" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{9933D81E-9075-4557-8F64-4EE38A353C41}" uniqueName="4" name="Resultado" queryTableFieldId="4" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1676,10 +1679,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -1754,7 +1757,7 @@
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 10 - Responsável: Bárbara</v>
+        <v>UC 10 - Responsável: Caroline</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -1763,7 +1766,7 @@
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,13 +1811,13 @@
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC7a, UC7b - Documentação - Responsável: Bárbara</v>
+        <v>UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -1826,25 +1829,25 @@
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>Apagar branches não usados - Responsável: Bárbara</v>
+        <v>Apagar branches não usados (03/03) - Responsável: Bárbara</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>RESTful API - Responsável: Bárbara, Ana</v>
+        <v>RESTful API (03/03) - Responsável: Bárbara, Ana</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1853,24 +1856,30 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>RESTful API - service (04/03) - Responsável: Bárbara</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -1882,7 +1891,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -1893,26 +1902,38 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v xml:space="preserve"> - Responsável: </v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Atual, Curto Prazo, Futuro, Concluído"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12 F11:F12" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F13 D3:D13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 – Alto, 2 – Médio, 3 – Baixo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1935,1911 +1956,1912 @@
   <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="2.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="30.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="str">
+      <c r="B3" s="14" t="str">
         <f t="array" ref="B3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B3))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC7a, UC7b - Documentação - Responsável: Bárbara 
+        <v xml:space="preserve">UC 09 - Responsável: Ana 
 </v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="13" t="str">
         <f t="array" ref="D3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 09 - Responsável: Ana
+        <v xml:space="preserve">UC 10 - Responsável: Caroline
 </v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="str">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="str">
         <f t="array" ref="F3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="str">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="str">
         <f t="array" ref="H3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="str">
+      <c r="B4" s="14" t="str">
         <f t="array" ref="B4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B4))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">Apagar branches não usados - Responsável: Bárbara 
+        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
 </v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="13" t="str">
         <f t="array" ref="D4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 10 - Responsável: Bárbara
+        <v xml:space="preserve">UC 11 - Responsável: Caroline
 </v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="str">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="str">
         <f t="array" ref="F4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="str">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="str">
         <f t="array" ref="H4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="str">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="str">
         <f t="array" ref="B5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B5))))&amp;CHAR(10),"")</f>
+        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
+</v>
+      </c>
+      <c r="D5" s="13" t="str">
+        <f t="array" ref="D5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
+        <v xml:space="preserve">UC 12 - Responsável: Marta
+</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="str">
+        <f t="array" ref="F5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="str">
+        <f t="array" ref="H5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="str">
+        <f t="array" ref="B6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B6))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve"> - Responsável:  
 </v>
       </c>
-      <c r="D5" s="14" t="str">
-        <f t="array" ref="D5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 11 - Responsável: Caroline
+      <c r="D6" s="13" t="str">
+        <f t="array" ref="D6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
+        <v xml:space="preserve">RESTful API (03/03) - Responsável: Bárbara, Ana
 </v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="str">
-        <f t="array" ref="F5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="str">
-        <f t="array" ref="H5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="str">
-        <f t="array" ref="B6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B6))))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="14" t="str">
-        <f t="array" ref="D6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 12 - Responsável: Marta
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="str">
+        <f t="array" ref="F6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="str">
+        <f t="array" ref="H6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="str">
+        <f t="array" ref="B7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B7))))&amp;CHAR(10),"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="13" t="str">
+        <f t="array" ref="D7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
+        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara
 </v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="str">
-        <f t="array" ref="F6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="str">
-        <f t="array" ref="H6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="str">
-        <f t="array" ref="B7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B7))))&amp;CHAR(10),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="14" t="str">
-        <f t="array" ref="D7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API - Responsável: Bárbara, Ana
-</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="str">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="str">
         <f t="array" ref="F7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14" t="str">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="str">
         <f t="array" ref="H7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="str">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="str">
         <f t="array" ref="B8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B8))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="13" t="str">
         <f t="array" ref="D8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
         <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="str">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="str">
         <f t="array" ref="F8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="str">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="str">
         <f t="array" ref="H8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="str">
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="str">
         <f t="array" ref="B9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B9))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="13" t="str">
         <f t="array" ref="D9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="str">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="str">
         <f t="array" ref="F9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="str">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="str">
         <f t="array" ref="H9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="str">
+      <c r="B10" s="14" t="str">
         <f t="array" ref="B10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B10))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="13" t="str">
         <f t="array" ref="D10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="str">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="str">
         <f t="array" ref="F10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="str">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="str">
         <f t="array" ref="H10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="str">
+      <c r="B11" s="14" t="str">
         <f t="array" ref="B11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B11))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="13" t="str">
         <f t="array" ref="D11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="str">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="str">
         <f t="array" ref="F11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="str">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="str">
         <f t="array" ref="H11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="str">
+      <c r="B12" s="14" t="str">
         <f t="array" ref="B12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B12))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="13" t="str">
         <f t="array" ref="D12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="str">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="str">
         <f t="array" ref="F12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="str">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="str">
         <f t="array" ref="H12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="str">
+      <c r="B13" s="14" t="str">
         <f t="array" ref="B13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B13))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="13" t="str">
         <f t="array" ref="D13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="str">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="str">
         <f t="array" ref="F13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="str">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="str">
         <f t="array" ref="H13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="str">
+      <c r="B14" s="14" t="str">
         <f t="array" ref="B14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B14))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="13" t="str">
         <f t="array" ref="D14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="str">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="str">
         <f t="array" ref="F14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="str">
         <f t="array" ref="H14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="str">
+      <c r="B15" s="14" t="str">
         <f t="array" ref="B15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B15))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="13" t="str">
         <f t="array" ref="D15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="str">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="str">
         <f t="array" ref="F15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="str">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="str">
         <f t="array" ref="H15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="14" t="str">
         <f t="array" ref="B16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B16))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D16" s="13" t="str">
         <f t="array" ref="D16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="str">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="str">
         <f t="array" ref="F16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14" t="str">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="str">
         <f t="array" ref="H16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="14" t="str">
         <f t="array" ref="B17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B17))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D17" s="13" t="str">
         <f t="array" ref="D17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="str">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="str">
         <f t="array" ref="F17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="str">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="str">
         <f t="array" ref="H17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="14" t="str">
         <f t="array" ref="B18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B18))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D18" s="13" t="str">
         <f t="array" ref="D18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="str">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="str">
         <f t="array" ref="F18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14" t="str">
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="str">
         <f t="array" ref="H18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="14" t="str">
         <f t="array" ref="B19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B19))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D19" s="13" t="str">
         <f t="array" ref="D19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="str">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="str">
         <f t="array" ref="F19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14" t="str">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13" t="str">
         <f t="array" ref="H19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="14" t="str">
         <f t="array" ref="B20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B20))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="13" t="str">
         <f t="array" ref="D20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="str">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="str">
         <f t="array" ref="F20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="str">
         <f t="array" ref="H20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="13"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="15" t="str">
+      <c r="A21" s="9"/>
+      <c r="B21" s="14" t="str">
         <f t="array" ref="B21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B21))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D21" s="13" t="str">
         <f t="array" ref="D21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F21" s="14" t="str">
+      <c r="F21" s="13" t="str">
         <f t="array" ref="F21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="13" t="str">
         <f t="array" ref="H21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="14" t="str">
         <f t="array" ref="B22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B22))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D22" s="13" t="str">
         <f t="array" ref="D22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F22" s="14" t="str">
+      <c r="F22" s="13" t="str">
         <f t="array" ref="F22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="13" t="str">
         <f t="array" ref="H22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="14" t="str">
         <f t="array" ref="B23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B23))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D23" s="13" t="str">
         <f t="array" ref="D23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F23" s="14" t="str">
+      <c r="F23" s="13" t="str">
         <f t="array" ref="F23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="13" t="str">
         <f t="array" ref="H23">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B23)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="14" t="str">
         <f t="array" ref="B24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B24))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="13" t="str">
         <f t="array" ref="D24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F24" s="14" t="str">
+      <c r="F24" s="13" t="str">
         <f t="array" ref="F24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="13" t="str">
         <f t="array" ref="H24">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B24)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="str">
+      <c r="B25" s="14" t="str">
         <f t="array" ref="B25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B25))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="13" t="str">
         <f t="array" ref="D25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="13" t="str">
         <f t="array" ref="F25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="13" t="str">
         <f t="array" ref="H25">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B25)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="str">
+      <c r="B26" s="14" t="str">
         <f t="array" ref="B26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B26))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="13" t="str">
         <f t="array" ref="D26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F26" s="14" t="str">
+      <c r="F26" s="13" t="str">
         <f t="array" ref="F26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="13" t="str">
         <f t="array" ref="H26">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B26)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="str">
+      <c r="B27" s="14" t="str">
         <f t="array" ref="B27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B27))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D27" s="13" t="str">
         <f t="array" ref="D27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F27" s="14" t="str">
+      <c r="F27" s="13" t="str">
         <f t="array" ref="F27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="13" t="str">
         <f t="array" ref="H27">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B27)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="14" t="str">
         <f t="array" ref="B28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B28))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D28" s="13" t="str">
         <f t="array" ref="D28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F28" s="14" t="str">
+      <c r="F28" s="13" t="str">
         <f t="array" ref="F28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="13" t="str">
         <f t="array" ref="H28">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B28)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="str">
+      <c r="B29" s="14" t="str">
         <f t="array" ref="B29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B29))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D29" s="13" t="str">
         <f t="array" ref="D29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F29" s="14" t="str">
+      <c r="F29" s="13" t="str">
         <f t="array" ref="F29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="13" t="str">
         <f t="array" ref="H29">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B29)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="str">
+      <c r="B30" s="14" t="str">
         <f t="array" ref="B30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B30))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D30" s="13" t="str">
         <f t="array" ref="D30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F30" s="14" t="str">
+      <c r="F30" s="13" t="str">
         <f t="array" ref="F30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="13" t="str">
         <f t="array" ref="H30">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B30)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="str">
+      <c r="B31" s="14" t="str">
         <f t="array" ref="B31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B31))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D31" s="13" t="str">
         <f t="array" ref="D31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F31" s="14" t="str">
+      <c r="F31" s="13" t="str">
         <f t="array" ref="F31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H31" s="14" t="str">
+      <c r="H31" s="13" t="str">
         <f t="array" ref="H31">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B31)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="str">
+      <c r="B32" s="14" t="str">
         <f t="array" ref="B32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B32))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D32" s="13" t="str">
         <f t="array" ref="D32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F32" s="14" t="str">
+      <c r="F32" s="13" t="str">
         <f t="array" ref="F32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="13" t="str">
         <f t="array" ref="H32">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B32)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="str">
+      <c r="B33" s="14" t="str">
         <f t="array" ref="B33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B33))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D33" s="13" t="str">
         <f t="array" ref="D33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F33" s="14" t="str">
+      <c r="F33" s="13" t="str">
         <f t="array" ref="F33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="13" t="str">
         <f t="array" ref="H33">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B33)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="str">
+      <c r="B34" s="14" t="str">
         <f t="array" ref="B34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B34))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D34" s="13" t="str">
         <f t="array" ref="D34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F34" s="14" t="str">
+      <c r="F34" s="13" t="str">
         <f t="array" ref="F34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="13" t="str">
         <f t="array" ref="H34">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B34)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="str">
+      <c r="B35" s="14" t="str">
         <f t="array" ref="B35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B35))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D35" s="14" t="str">
+      <c r="D35" s="13" t="str">
         <f t="array" ref="D35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F35" s="14" t="str">
+      <c r="F35" s="13" t="str">
         <f t="array" ref="F35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="13" t="str">
         <f t="array" ref="H35">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B35)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="str">
+      <c r="B36" s="14" t="str">
         <f t="array" ref="B36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B36))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D36" s="14" t="str">
+      <c r="D36" s="13" t="str">
         <f t="array" ref="D36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F36" s="14" t="str">
+      <c r="F36" s="13" t="str">
         <f t="array" ref="F36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="13" t="str">
         <f t="array" ref="H36">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B36)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="str">
+      <c r="B37" s="14" t="str">
         <f t="array" ref="B37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B37))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D37" s="14" t="str">
+      <c r="D37" s="13" t="str">
         <f t="array" ref="D37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F37" s="14" t="str">
+      <c r="F37" s="13" t="str">
         <f t="array" ref="F37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="13" t="str">
         <f t="array" ref="H37">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B37)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="str">
+      <c r="B38" s="14" t="str">
         <f t="array" ref="B38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B38))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D38" s="14" t="str">
+      <c r="D38" s="13" t="str">
         <f t="array" ref="D38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F38" s="14" t="str">
+      <c r="F38" s="13" t="str">
         <f t="array" ref="F38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="13" t="str">
         <f t="array" ref="H38">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B38)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="str">
+      <c r="B39" s="14" t="str">
         <f t="array" ref="B39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B39))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D39" s="14" t="str">
+      <c r="D39" s="13" t="str">
         <f t="array" ref="D39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F39" s="14" t="str">
+      <c r="F39" s="13" t="str">
         <f t="array" ref="F39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H39" s="14" t="str">
+      <c r="H39" s="13" t="str">
         <f t="array" ref="H39">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B39)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="str">
+      <c r="B40" s="14" t="str">
         <f t="array" ref="B40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B40))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D40" s="14" t="str">
+      <c r="D40" s="13" t="str">
         <f t="array" ref="D40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F40" s="14" t="str">
+      <c r="F40" s="13" t="str">
         <f t="array" ref="F40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H40" s="14" t="str">
+      <c r="H40" s="13" t="str">
         <f t="array" ref="H40">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B40)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="15" t="str">
+      <c r="B41" s="14" t="str">
         <f t="array" ref="B41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B41))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D41" s="14" t="str">
+      <c r="D41" s="13" t="str">
         <f t="array" ref="D41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F41" s="14" t="str">
+      <c r="F41" s="13" t="str">
         <f t="array" ref="F41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H41" s="14" t="str">
+      <c r="H41" s="13" t="str">
         <f t="array" ref="H41">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B41)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="str">
+      <c r="B42" s="14" t="str">
         <f t="array" ref="B42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B42))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D42" s="14" t="str">
+      <c r="D42" s="13" t="str">
         <f t="array" ref="D42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F42" s="14" t="str">
+      <c r="F42" s="13" t="str">
         <f t="array" ref="F42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H42" s="14" t="str">
+      <c r="H42" s="13" t="str">
         <f t="array" ref="H42">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B42)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="str">
+      <c r="B43" s="14" t="str">
         <f t="array" ref="B43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B43))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D43" s="14" t="str">
+      <c r="D43" s="13" t="str">
         <f t="array" ref="D43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F43" s="14" t="str">
+      <c r="F43" s="13" t="str">
         <f t="array" ref="F43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H43" s="14" t="str">
+      <c r="H43" s="13" t="str">
         <f t="array" ref="H43">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B43)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="str">
+      <c r="B44" s="14" t="str">
         <f t="array" ref="B44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B44))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D44" s="14" t="str">
+      <c r="D44" s="13" t="str">
         <f t="array" ref="D44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F44" s="14" t="str">
+      <c r="F44" s="13" t="str">
         <f t="array" ref="F44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H44" s="14" t="str">
+      <c r="H44" s="13" t="str">
         <f t="array" ref="H44">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B44)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="14" t="str">
         <f t="array" ref="B45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B45))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D45" s="14" t="str">
+      <c r="D45" s="13" t="str">
         <f t="array" ref="D45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F45" s="14" t="str">
+      <c r="F45" s="13" t="str">
         <f t="array" ref="F45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H45" s="14" t="str">
+      <c r="H45" s="13" t="str">
         <f t="array" ref="H45">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B45)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="str">
+      <c r="B46" s="14" t="str">
         <f t="array" ref="B46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B46))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D46" s="14" t="str">
+      <c r="D46" s="13" t="str">
         <f t="array" ref="D46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F46" s="14" t="str">
+      <c r="F46" s="13" t="str">
         <f t="array" ref="F46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H46" s="14" t="str">
+      <c r="H46" s="13" t="str">
         <f t="array" ref="H46">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B46)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="15" t="str">
+      <c r="B47" s="14" t="str">
         <f t="array" ref="B47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B47))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D47" s="14" t="str">
+      <c r="D47" s="13" t="str">
         <f t="array" ref="D47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F47" s="14" t="str">
+      <c r="F47" s="13" t="str">
         <f t="array" ref="F47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H47" s="14" t="str">
+      <c r="H47" s="13" t="str">
         <f t="array" ref="H47">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B47)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="15" t="str">
+      <c r="B48" s="14" t="str">
         <f t="array" ref="B48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B48))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D48" s="14" t="str">
+      <c r="D48" s="13" t="str">
         <f t="array" ref="D48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F48" s="14" t="str">
+      <c r="F48" s="13" t="str">
         <f t="array" ref="F48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H48" s="14" t="str">
+      <c r="H48" s="13" t="str">
         <f t="array" ref="H48">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B48)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="15" t="str">
+      <c r="B49" s="14" t="str">
         <f t="array" ref="B49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B49))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D49" s="14" t="str">
+      <c r="D49" s="13" t="str">
         <f t="array" ref="D49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F49" s="14" t="str">
+      <c r="F49" s="13" t="str">
         <f t="array" ref="F49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H49" s="14" t="str">
+      <c r="H49" s="13" t="str">
         <f t="array" ref="H49">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B49)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="15" t="str">
+      <c r="B50" s="14" t="str">
         <f t="array" ref="B50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B50))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D50" s="14" t="str">
+      <c r="D50" s="13" t="str">
         <f t="array" ref="D50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F50" s="14" t="str">
+      <c r="F50" s="13" t="str">
         <f t="array" ref="F50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H50" s="14" t="str">
+      <c r="H50" s="13" t="str">
         <f t="array" ref="H50">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B50)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="15" t="str">
+      <c r="B51" s="14" t="str">
         <f t="array" ref="B51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B51))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D51" s="14" t="str">
+      <c r="D51" s="13" t="str">
         <f t="array" ref="D51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F51" s="14" t="str">
+      <c r="F51" s="13" t="str">
         <f t="array" ref="F51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H51" s="14" t="str">
+      <c r="H51" s="13" t="str">
         <f t="array" ref="H51">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B51)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="15" t="str">
+      <c r="B52" s="14" t="str">
         <f t="array" ref="B52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B52))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D52" s="14" t="str">
+      <c r="D52" s="13" t="str">
         <f t="array" ref="D52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F52" s="14" t="str">
+      <c r="F52" s="13" t="str">
         <f t="array" ref="F52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H52" s="14" t="str">
+      <c r="H52" s="13" t="str">
         <f t="array" ref="H52">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B52)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="str">
+      <c r="B53" s="14" t="str">
         <f t="array" ref="B53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B53))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D53" s="14" t="str">
+      <c r="D53" s="13" t="str">
         <f t="array" ref="D53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F53" s="14" t="str">
+      <c r="F53" s="13" t="str">
         <f t="array" ref="F53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H53" s="14" t="str">
+      <c r="H53" s="13" t="str">
         <f t="array" ref="H53">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B53)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="str">
+      <c r="B54" s="14" t="str">
         <f t="array" ref="B54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B54))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D54" s="14" t="str">
+      <c r="D54" s="13" t="str">
         <f t="array" ref="D54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F54" s="14" t="str">
+      <c r="F54" s="13" t="str">
         <f t="array" ref="F54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H54" s="14" t="str">
+      <c r="H54" s="13" t="str">
         <f t="array" ref="H54">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B54)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="15" t="str">
+      <c r="B55" s="14" t="str">
         <f t="array" ref="B55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B55))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D55" s="14" t="str">
+      <c r="D55" s="13" t="str">
         <f t="array" ref="D55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F55" s="14" t="str">
+      <c r="F55" s="13" t="str">
         <f t="array" ref="F55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H55" s="14" t="str">
+      <c r="H55" s="13" t="str">
         <f t="array" ref="H55">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B55)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="15" t="str">
+      <c r="B56" s="14" t="str">
         <f t="array" ref="B56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B56))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D56" s="14" t="str">
+      <c r="D56" s="13" t="str">
         <f t="array" ref="D56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F56" s="14" t="str">
+      <c r="F56" s="13" t="str">
         <f t="array" ref="F56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H56" s="14" t="str">
+      <c r="H56" s="13" t="str">
         <f t="array" ref="H56">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B56)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="15" t="str">
+      <c r="B57" s="14" t="str">
         <f t="array" ref="B57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B57))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D57" s="14" t="str">
+      <c r="D57" s="13" t="str">
         <f t="array" ref="D57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F57" s="14" t="str">
+      <c r="F57" s="13" t="str">
         <f t="array" ref="F57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H57" s="14" t="str">
+      <c r="H57" s="13" t="str">
         <f t="array" ref="H57">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B57)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="15" t="str">
+      <c r="B58" s="14" t="str">
         <f t="array" ref="B58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B58))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D58" s="14" t="str">
+      <c r="D58" s="13" t="str">
         <f t="array" ref="D58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F58" s="14" t="str">
+      <c r="F58" s="13" t="str">
         <f t="array" ref="F58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H58" s="14" t="str">
+      <c r="H58" s="13" t="str">
         <f t="array" ref="H58">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B58)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="str">
+      <c r="B59" s="14" t="str">
         <f t="array" ref="B59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B59))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D59" s="14" t="str">
+      <c r="D59" s="13" t="str">
         <f t="array" ref="D59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F59" s="14" t="str">
+      <c r="F59" s="13" t="str">
         <f t="array" ref="F59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H59" s="14" t="str">
+      <c r="H59" s="13" t="str">
         <f t="array" ref="H59">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B59)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="15" t="str">
+      <c r="B60" s="14" t="str">
         <f t="array" ref="B60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B60))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D60" s="14" t="str">
+      <c r="D60" s="13" t="str">
         <f t="array" ref="D60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F60" s="14" t="str">
+      <c r="F60" s="13" t="str">
         <f t="array" ref="F60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H60" s="14" t="str">
+      <c r="H60" s="13" t="str">
         <f t="array" ref="H60">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B60)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="str">
+      <c r="B61" s="14" t="str">
         <f t="array" ref="B61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B61))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D61" s="14" t="str">
+      <c r="D61" s="13" t="str">
         <f t="array" ref="D61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F61" s="14" t="str">
+      <c r="F61" s="13" t="str">
         <f t="array" ref="F61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H61" s="14" t="str">
+      <c r="H61" s="13" t="str">
         <f t="array" ref="H61">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B61)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="15" t="str">
+      <c r="B62" s="14" t="str">
         <f t="array" ref="B62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B62))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D62" s="14" t="str">
+      <c r="D62" s="13" t="str">
         <f t="array" ref="D62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F62" s="14" t="str">
+      <c r="F62" s="13" t="str">
         <f t="array" ref="F62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H62" s="14" t="str">
+      <c r="H62" s="13" t="str">
         <f t="array" ref="H62">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B62)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="15" t="str">
+      <c r="B63" s="14" t="str">
         <f t="array" ref="B63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B63))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D63" s="14" t="str">
+      <c r="D63" s="13" t="str">
         <f t="array" ref="D63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F63" s="14" t="str">
+      <c r="F63" s="13" t="str">
         <f t="array" ref="F63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H63" s="14" t="str">
+      <c r="H63" s="13" t="str">
         <f t="array" ref="H63">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B63)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="str">
+      <c r="B64" s="14" t="str">
         <f t="array" ref="B64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B64))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D64" s="14" t="str">
+      <c r="D64" s="13" t="str">
         <f t="array" ref="D64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F64" s="14" t="str">
+      <c r="F64" s="13" t="str">
         <f t="array" ref="F64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H64" s="14" t="str">
+      <c r="H64" s="13" t="str">
         <f t="array" ref="H64">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B64)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="15" t="str">
+      <c r="B65" s="14" t="str">
         <f t="array" ref="B65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B65))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D65" s="14" t="str">
+      <c r="D65" s="13" t="str">
         <f t="array" ref="D65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F65" s="14" t="str">
+      <c r="F65" s="13" t="str">
         <f t="array" ref="F65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H65" s="14" t="str">
+      <c r="H65" s="13" t="str">
         <f t="array" ref="H65">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B65)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="15" t="str">
+      <c r="B66" s="14" t="str">
         <f t="array" ref="B66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B66))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D66" s="14" t="str">
+      <c r="D66" s="13" t="str">
         <f t="array" ref="D66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F66" s="14" t="str">
+      <c r="F66" s="13" t="str">
         <f t="array" ref="F66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H66" s="14" t="str">
+      <c r="H66" s="13" t="str">
         <f t="array" ref="H66">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B66)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="15" t="str">
+      <c r="B67" s="14" t="str">
         <f t="array" ref="B67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B67))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D67" s="14" t="str">
+      <c r="D67" s="13" t="str">
         <f t="array" ref="D67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F67" s="14" t="str">
+      <c r="F67" s="13" t="str">
         <f t="array" ref="F67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H67" s="14" t="str">
+      <c r="H67" s="13" t="str">
         <f t="array" ref="H67">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B67)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="str">
+      <c r="B68" s="14" t="str">
         <f t="array" ref="B68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B68))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D68" s="14" t="str">
+      <c r="D68" s="13" t="str">
         <f t="array" ref="D68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F68" s="14" t="str">
+      <c r="F68" s="13" t="str">
         <f t="array" ref="F68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H68" s="14" t="str">
+      <c r="H68" s="13" t="str">
         <f t="array" ref="H68">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B68)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="str">
+      <c r="B69" s="14" t="str">
         <f t="array" ref="B69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B69))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D69" s="14" t="str">
+      <c r="D69" s="13" t="str">
         <f t="array" ref="D69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F69" s="14" t="str">
+      <c r="F69" s="13" t="str">
         <f t="array" ref="F69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H69" s="14" t="str">
+      <c r="H69" s="13" t="str">
         <f t="array" ref="H69">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B69)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="str">
+      <c r="B70" s="14" t="str">
         <f t="array" ref="B70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B70))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D70" s="14" t="str">
+      <c r="D70" s="13" t="str">
         <f t="array" ref="D70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F70" s="14" t="str">
+      <c r="F70" s="13" t="str">
         <f t="array" ref="F70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H70" s="14" t="str">
+      <c r="H70" s="13" t="str">
         <f t="array" ref="H70">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B70)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="15" t="str">
+      <c r="B71" s="14" t="str">
         <f t="array" ref="B71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B71))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D71" s="14" t="str">
+      <c r="D71" s="13" t="str">
         <f t="array" ref="D71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F71" s="14" t="str">
+      <c r="F71" s="13" t="str">
         <f t="array" ref="F71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H71" s="14" t="str">
+      <c r="H71" s="13" t="str">
         <f t="array" ref="H71">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B71)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="str">
+      <c r="B72" s="14" t="str">
         <f t="array" ref="B72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B72))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D72" s="14" t="str">
+      <c r="D72" s="13" t="str">
         <f t="array" ref="D72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F72" s="14" t="str">
+      <c r="F72" s="13" t="str">
         <f t="array" ref="F72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H72" s="14" t="str">
+      <c r="H72" s="13" t="str">
         <f t="array" ref="H72">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B72)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="str">
+      <c r="B73" s="14" t="str">
         <f t="array" ref="B73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B73))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D73" s="14" t="str">
+      <c r="D73" s="13" t="str">
         <f t="array" ref="D73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F73" s="14" t="str">
+      <c r="F73" s="13" t="str">
         <f t="array" ref="F73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H73" s="14" t="str">
+      <c r="H73" s="13" t="str">
         <f t="array" ref="H73">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B73)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="15" t="str">
+      <c r="B74" s="14" t="str">
         <f t="array" ref="B74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B74))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D74" s="14" t="str">
+      <c r="D74" s="13" t="str">
         <f t="array" ref="D74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F74" s="14" t="str">
+      <c r="F74" s="13" t="str">
         <f t="array" ref="F74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H74" s="14" t="str">
+      <c r="H74" s="13" t="str">
         <f t="array" ref="H74">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B74)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="str">
+      <c r="B75" s="14" t="str">
         <f t="array" ref="B75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B75))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D75" s="14" t="str">
+      <c r="D75" s="13" t="str">
         <f t="array" ref="D75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F75" s="14" t="str">
+      <c r="F75" s="13" t="str">
         <f t="array" ref="F75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H75" s="14" t="str">
+      <c r="H75" s="13" t="str">
         <f t="array" ref="H75">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B75)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="15" t="str">
+      <c r="B76" s="14" t="str">
         <f t="array" ref="B76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B76))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D76" s="14" t="str">
+      <c r="D76" s="13" t="str">
         <f t="array" ref="D76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F76" s="14" t="str">
+      <c r="F76" s="13" t="str">
         <f t="array" ref="F76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H76" s="14" t="str">
+      <c r="H76" s="13" t="str">
         <f t="array" ref="H76">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B76)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="str">
+      <c r="B77" s="14" t="str">
         <f t="array" ref="B77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B77))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D77" s="14" t="str">
+      <c r="D77" s="13" t="str">
         <f t="array" ref="D77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F77" s="14" t="str">
+      <c r="F77" s="13" t="str">
         <f t="array" ref="F77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H77" s="14" t="str">
+      <c r="H77" s="13" t="str">
         <f t="array" ref="H77">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B77)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="str">
+      <c r="B78" s="14" t="str">
         <f t="array" ref="B78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B78))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D78" s="14" t="str">
+      <c r="D78" s="13" t="str">
         <f t="array" ref="D78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F78" s="14" t="str">
+      <c r="F78" s="13" t="str">
         <f t="array" ref="F78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H78" s="14" t="str">
+      <c r="H78" s="13" t="str">
         <f t="array" ref="H78">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B78)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="15" t="str">
+      <c r="B79" s="14" t="str">
         <f t="array" ref="B79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B79))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D79" s="14" t="str">
+      <c r="D79" s="13" t="str">
         <f t="array" ref="D79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F79" s="14" t="str">
+      <c r="F79" s="13" t="str">
         <f t="array" ref="F79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H79" s="14" t="str">
+      <c r="H79" s="13" t="str">
         <f t="array" ref="H79">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B79)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="15" t="str">
+      <c r="B80" s="14" t="str">
         <f t="array" ref="B80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B80))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D80" s="14" t="str">
+      <c r="D80" s="13" t="str">
         <f t="array" ref="D80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F80" s="14" t="str">
+      <c r="F80" s="13" t="str">
         <f t="array" ref="F80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H80" s="14" t="str">
+      <c r="H80" s="13" t="str">
         <f t="array" ref="H80">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B80)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="15" t="str">
+      <c r="B81" s="14" t="str">
         <f t="array" ref="B81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B81))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D81" s="14" t="str">
+      <c r="D81" s="13" t="str">
         <f t="array" ref="D81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F81" s="14" t="str">
+      <c r="F81" s="13" t="str">
         <f t="array" ref="F81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H81" s="14" t="str">
+      <c r="H81" s="13" t="str">
         <f t="array" ref="H81">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B81)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="15" t="str">
+      <c r="B82" s="14" t="str">
         <f t="array" ref="B82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B82))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D82" s="14" t="str">
+      <c r="D82" s="13" t="str">
         <f t="array" ref="D82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F82" s="14" t="str">
+      <c r="F82" s="13" t="str">
         <f t="array" ref="F82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H82" s="14" t="str">
+      <c r="H82" s="13" t="str">
         <f t="array" ref="H82">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B82)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="15" t="str">
+      <c r="B83" s="14" t="str">
         <f t="array" ref="B83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B83))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D83" s="14" t="str">
+      <c r="D83" s="13" t="str">
         <f t="array" ref="D83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F83" s="14" t="str">
+      <c r="F83" s="13" t="str">
         <f t="array" ref="F83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H83" s="14" t="str">
+      <c r="H83" s="13" t="str">
         <f t="array" ref="H83">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B83)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="15" t="str">
+      <c r="B84" s="14" t="str">
         <f t="array" ref="B84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B84))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D84" s="14" t="str">
+      <c r="D84" s="13" t="str">
         <f t="array" ref="D84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F84" s="14" t="str">
+      <c r="F84" s="13" t="str">
         <f t="array" ref="F84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H84" s="14" t="str">
+      <c r="H84" s="13" t="str">
         <f t="array" ref="H84">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B84)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="15" t="str">
+      <c r="B85" s="14" t="str">
         <f t="array" ref="B85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B85))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D85" s="14" t="str">
+      <c r="D85" s="13" t="str">
         <f t="array" ref="D85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F85" s="14" t="str">
+      <c r="F85" s="13" t="str">
         <f t="array" ref="F85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H85" s="14" t="str">
+      <c r="H85" s="13" t="str">
         <f t="array" ref="H85">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B85)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="15" t="str">
+      <c r="B86" s="14" t="str">
         <f t="array" ref="B86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B86))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D86" s="14" t="str">
+      <c r="D86" s="13" t="str">
         <f t="array" ref="D86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F86" s="14" t="str">
+      <c r="F86" s="13" t="str">
         <f t="array" ref="F86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H86" s="14" t="str">
+      <c r="H86" s="13" t="str">
         <f t="array" ref="H86">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B86)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="15" t="str">
+      <c r="B87" s="14" t="str">
         <f t="array" ref="B87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B87))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D87" s="14" t="str">
+      <c r="D87" s="13" t="str">
         <f t="array" ref="D87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F87" s="14" t="str">
+      <c r="F87" s="13" t="str">
         <f t="array" ref="F87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H87" s="14" t="str">
+      <c r="H87" s="13" t="str">
         <f t="array" ref="H87">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B87)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="15" t="str">
+      <c r="B88" s="14" t="str">
         <f t="array" ref="B88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B88))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D88" s="14" t="str">
+      <c r="D88" s="13" t="str">
         <f t="array" ref="D88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F88" s="14" t="str">
+      <c r="F88" s="13" t="str">
         <f t="array" ref="F88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H88" s="14" t="str">
+      <c r="H88" s="13" t="str">
         <f t="array" ref="H88">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B88)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="15" t="str">
+      <c r="B89" s="14" t="str">
         <f t="array" ref="B89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B89))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D89" s="14" t="str">
+      <c r="D89" s="13" t="str">
         <f t="array" ref="D89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F89" s="14" t="str">
+      <c r="F89" s="13" t="str">
         <f t="array" ref="F89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H89" s="14" t="str">
+      <c r="H89" s="13" t="str">
         <f t="array" ref="H89">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B89)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="15" t="str">
+      <c r="B90" s="14" t="str">
         <f t="array" ref="B90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B90))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D90" s="14" t="str">
+      <c r="D90" s="13" t="str">
         <f t="array" ref="D90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F90" s="14" t="str">
+      <c r="F90" s="13" t="str">
         <f t="array" ref="F90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H90" s="14" t="str">
+      <c r="H90" s="13" t="str">
         <f t="array" ref="H90">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B90)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="15" t="str">
+      <c r="B91" s="14" t="str">
         <f t="array" ref="B91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B91))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D91" s="14" t="str">
+      <c r="D91" s="13" t="str">
         <f t="array" ref="D91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F91" s="14" t="str">
+      <c r="F91" s="13" t="str">
         <f t="array" ref="F91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H91" s="14" t="str">
+      <c r="H91" s="13" t="str">
         <f t="array" ref="H91">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B91)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="15" t="str">
+      <c r="B92" s="14" t="str">
         <f t="array" ref="B92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B92))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D92" s="14" t="str">
+      <c r="D92" s="13" t="str">
         <f t="array" ref="D92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F92" s="14" t="str">
+      <c r="F92" s="13" t="str">
         <f t="array" ref="F92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H92" s="14" t="str">
+      <c r="H92" s="13" t="str">
         <f t="array" ref="H92">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B92)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="15" t="str">
+      <c r="B93" s="14" t="str">
         <f t="array" ref="B93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B93))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D93" s="14" t="str">
+      <c r="D93" s="13" t="str">
         <f t="array" ref="D93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F93" s="14" t="str">
+      <c r="F93" s="13" t="str">
         <f t="array" ref="F93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H93" s="14" t="str">
+      <c r="H93" s="13" t="str">
         <f t="array" ref="H93">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B93)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="15" t="str">
+      <c r="B94" s="14" t="str">
         <f t="array" ref="B94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B94))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D94" s="14" t="str">
+      <c r="D94" s="13" t="str">
         <f t="array" ref="D94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F94" s="14" t="str">
+      <c r="F94" s="13" t="str">
         <f t="array" ref="F94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H94" s="14" t="str">
+      <c r="H94" s="13" t="str">
         <f t="array" ref="H94">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B94)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="15" t="str">
+      <c r="B95" s="14" t="str">
         <f t="array" ref="B95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B95))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D95" s="14" t="str">
+      <c r="D95" s="13" t="str">
         <f t="array" ref="D95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F95" s="14" t="str">
+      <c r="F95" s="13" t="str">
         <f t="array" ref="F95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H95" s="14" t="str">
+      <c r="H95" s="13" t="str">
         <f t="array" ref="H95">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B95)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="15" t="str">
+      <c r="B96" s="14" t="str">
         <f t="array" ref="B96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B96))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D96" s="14" t="str">
+      <c r="D96" s="13" t="str">
         <f t="array" ref="D96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F96" s="14" t="str">
+      <c r="F96" s="13" t="str">
         <f t="array" ref="F96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H96" s="14" t="str">
+      <c r="H96" s="13" t="str">
         <f t="array" ref="H96">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B96)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="15" t="str">
+      <c r="B97" s="14" t="str">
         <f t="array" ref="B97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B97))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D97" s="14" t="str">
+      <c r="D97" s="13" t="str">
         <f t="array" ref="D97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F97" s="14" t="str">
+      <c r="F97" s="13" t="str">
         <f t="array" ref="F97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H97" s="14" t="str">
+      <c r="H97" s="13" t="str">
         <f t="array" ref="H97">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B97)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="15" t="str">
+      <c r="B98" s="14" t="str">
         <f t="array" ref="B98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B98))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D98" s="14" t="str">
+      <c r="D98" s="13" t="str">
         <f t="array" ref="D98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F98" s="14" t="str">
+      <c r="F98" s="13" t="str">
         <f t="array" ref="F98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H98" s="14" t="str">
+      <c r="H98" s="13" t="str">
         <f t="array" ref="H98">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B98)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="15" t="str">
+      <c r="B99" s="14" t="str">
         <f t="array" ref="B99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B99))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D99" s="14" t="str">
+      <c r="D99" s="13" t="str">
         <f t="array" ref="D99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F99" s="14" t="str">
+      <c r="F99" s="13" t="str">
         <f t="array" ref="F99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H99" s="14" t="str">
+      <c r="H99" s="13" t="str">
         <f t="array" ref="H99">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B99)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="15" t="str">
+      <c r="B100" s="14" t="str">
         <f t="array" ref="B100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B100))))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="D100" s="14" t="str">
+      <c r="D100" s="13" t="str">
         <f t="array" ref="D100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="F100" s="14" t="str">
+      <c r="F100" s="13" t="str">
         <f t="array" ref="F100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
-      <c r="H100" s="14" t="str">
+      <c r="H100" s="13" t="str">
         <f t="array" ref="H100">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$H$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B100)))&amp;CHAR(10),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>ISNUMBER(SEARCH("Sem Alteração",$B3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>LEN($B3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D100">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>LEN($D3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F100">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>LEN($F3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H100">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>LEN($H3)&lt;&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B100">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($B3)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentação/Sprint 4/Dashboard Sprint4.xlsx
+++ b/Documentação/Sprint 4/Dashboard Sprint4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F285B7AD-A6A8-442B-A5D1-5A804C347492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D0299-E7BB-41B3-9627-C7AEA274F564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Roteiro" sheetId="3" r:id="rId1"/>
@@ -21,19 +21,10 @@
     <definedName name="Resultado">DadosDoRoteiro[Resultado]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dados do Roteiro'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
   <si>
     <t>Crie um Roteiro Ágil inserindo marcos ou atividades importantes na tabela Dados do Roteiro nesta planilha.
 O título desta planilha está na célula B1. 
@@ -195,12 +186,6 @@
     <t>UC 09</t>
   </si>
   <si>
-    <t>UC 10</t>
-  </si>
-  <si>
-    <t>UC 11</t>
-  </si>
-  <si>
     <t>UC 12</t>
   </si>
   <si>
@@ -235,6 +220,33 @@
   </si>
   <si>
     <t>UC7a, UC7b - Documentação (02/03)</t>
+  </si>
+  <si>
+    <t>UC 11 - Documentação (01/03 e 03/03)</t>
+  </si>
+  <si>
+    <t>UC 10A e UC10B  - Documentação (02/03 e 03/03)</t>
+  </si>
+  <si>
+    <t>UC 10A e UC10B  - Implementação Java (04/03 e 05/03)</t>
+  </si>
+  <si>
+    <t>UC 10A e UC10B  - Base de Dados (05/03)</t>
+  </si>
+  <si>
+    <t>UC 10A e UC10B  - Interface Gráfica (08/03 e 09/03)</t>
+  </si>
+  <si>
+    <t>UC 10A e UC10B  - Conexão de Implementação Java, Base de Dados e Interface Gráfica (10/03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03) </t>
+  </si>
+  <si>
+    <t>Caroline, Bárbara</t>
+  </si>
+  <si>
+    <t>Revisão geral na documentação dos Ucs implementados</t>
   </si>
 </sst>
 </file>
@@ -242,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -722,10 +734,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -764,7 +776,7 @@
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -811,54 +823,57 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Cor1" xfId="24" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Cor1" xfId="25" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Cor1" xfId="26" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="24" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="25" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="26" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="11" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="16" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula Ligada" xfId="17" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Cor1" xfId="23" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Correto" xfId="11" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="18" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="17" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="23" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="43" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="14" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="12" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moeda" xfId="8" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moeda [0]" xfId="9" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Nota" xfId="20" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Percentagem" xfId="10" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Porcentagem" xfId="10" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="12" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Separador de milhares [0]" xfId="7" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="19" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Verificar Célula" xfId="18" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
@@ -1044,8 +1059,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>752475</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1105,8 +1120,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>452438</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1122,7 +1137,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="8277225" y="885825"/>
-          <a:ext cx="342900" cy="4195763"/>
+          <a:ext cx="342900" cy="3929063"/>
           <a:chOff x="7515225" y="885825"/>
           <a:chExt cx="342900" cy="4386263"/>
         </a:xfrm>
@@ -1237,8 +1252,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>452438</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1254,7 +1269,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5429250" y="885825"/>
-          <a:ext cx="342900" cy="4195763"/>
+          <a:ext cx="342900" cy="3929063"/>
           <a:chOff x="7515225" y="885825"/>
           <a:chExt cx="342900" cy="4386263"/>
         </a:xfrm>
@@ -1376,11 +1391,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G13">
-  <autoFilter ref="B2:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G13">
-    <sortCondition ref="D3:D13"/>
-    <sortCondition ref="C3:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G19">
+  <autoFilter ref="B2:G19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G19">
+    <sortCondition ref="D3:D19"/>
+    <sortCondition ref="C3:C19"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Meta" totalsRowLabel="Total"/>
@@ -1679,10 +1694,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,10 +1733,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -1745,195 +1760,304 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G3" s="16"/>
       <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 10 - Responsável: Caroline</v>
+        <v>UC 10A e UC10B  - Documentação (02/03 e 03/03) - Responsável: Caroline</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 11 - Responsável: Caroline</v>
+        <v>UC 10A e UC10B  - Implementação Java (04/03 e 05/03) - Responsável: Caroline</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 12 - Responsável: Marta</v>
+        <v>UC 10A e UC10B  - Base de Dados (05/03) - Responsável: Caroline</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara</v>
+        <v>UC 10A e UC10B  - Interface Gráfica (08/03 e 09/03) - Responsável: Caroline</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>Apagar branches não usados (03/03) - Responsável: Bárbara</v>
+        <v>UC 10A e UC10B  - Conexão de Implementação Java, Base de Dados e Interface Gráfica (10/03) - Responsável: Caroline</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>RESTful API (03/03) - Responsável: Bárbara, Ana</v>
+        <v>UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03)  - Responsável: Caroline, Bárbara</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>RESTful API - service (04/03) - Responsável: Bárbara</v>
+        <v>Revisão geral na documentação dos Ucs implementados - Responsável: Caroline</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>UC 12 - Responsável: Marta</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>Apagar branches não usados (03/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>RESTful API (03/03) - Responsável: Bárbara, Ana</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>RESTful API - service (04/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
         <v xml:space="preserve"> - Responsável: </v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v xml:space="preserve"> - Responsável: </v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v xml:space="preserve"> - Responsável: </v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Atual, Curto Prazo, Futuro, Concluído"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F13 D3:D13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F19 D3:D19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 – Alto, 2 – Médio, 3 – Baixo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1955,8 +2079,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2014,13 +2138,14 @@
       </c>
       <c r="D3" s="13" t="str">
         <f t="array" ref="D3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 10 - Responsável: Caroline
+        <v xml:space="preserve">UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03)  - Responsável: Caroline, Bárbara
 </v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="str">
         <f t="array" ref="F3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Revisão geral na documentação dos Ucs implementados - Responsável: Caroline
+</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="str">
@@ -2030,15 +2155,15 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="str">
         <f t="array" ref="B4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B4))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
+        <v xml:space="preserve">UC 10A e UC10B  - Documentação (02/03 e 03/03) - Responsável: Caroline 
 </v>
       </c>
       <c r="D4" s="13" t="str">
         <f t="array" ref="D4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 11 - Responsável: Caroline
+        <v xml:space="preserve">UC 12 - Responsável: Marta
 </v>
       </c>
       <c r="E4" s="13"/>
@@ -2053,15 +2178,15 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="str">
         <f t="array" ref="B5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B5))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
+        <v xml:space="preserve">UC 10A e UC10B  - Implementação Java (04/03 e 05/03) - Responsável: Caroline 
 </v>
       </c>
       <c r="D5" s="13" t="str">
         <f t="array" ref="D5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 12 - Responsável: Marta
+        <v xml:space="preserve">RESTful API (03/03) - Responsável: Bárbara, Ana
 </v>
       </c>
       <c r="E5" s="13"/>
@@ -2076,15 +2201,15 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="str">
         <f t="array" ref="B6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B6))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável:  
+        <v xml:space="preserve">UC 10A e UC10B  - Base de Dados (05/03) - Responsável: Caroline 
 </v>
       </c>
       <c r="D6" s="13" t="str">
         <f t="array" ref="D6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API (03/03) - Responsável: Bárbara, Ana
+        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara
 </v>
       </c>
       <c r="E6" s="13"/>
@@ -2099,14 +2224,15 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="str">
         <f t="array" ref="B7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B7))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">UC 10A e UC10B  - Interface Gráfica (08/03 e 09/03) - Responsável: Caroline 
+</v>
       </c>
       <c r="D7" s="13" t="str">
         <f t="array" ref="D7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara
+        <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
       <c r="E7" s="13"/>
@@ -2121,15 +2247,15 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="str">
         <f t="array" ref="B8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B8))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">UC 10A e UC10B  - Conexão de Implementação Java, Base de Dados e Interface Gráfica (10/03) - Responsável: Caroline 
+</v>
       </c>
       <c r="D8" s="13" t="str">
         <f t="array" ref="D8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável: 
-</v>
+        <v/>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="str">
@@ -2143,10 +2269,11 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="str">
         <f t="array" ref="B9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B9))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline 
+</v>
       </c>
       <c r="D9" s="13" t="str">
         <f t="array" ref="D9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;CHAR(10),"")</f>
@@ -2164,10 +2291,11 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="str">
         <f t="array" ref="B10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B10))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D10" s="13" t="str">
         <f t="array" ref="D10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;CHAR(10),"")</f>
@@ -2185,10 +2313,11 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="str">
         <f t="array" ref="B11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B11))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D11" s="13" t="str">
         <f t="array" ref="D11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;CHAR(10),"")</f>
@@ -2206,10 +2335,11 @@
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="str">
         <f t="array" ref="B12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B12))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve"> - Responsável:  
+</v>
       </c>
       <c r="D12" s="13" t="str">
         <f t="array" ref="D12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;CHAR(10),"")</f>

--- a/Documentação/Sprint 4/Dashboard Sprint4.xlsx
+++ b/Documentação/Sprint 4/Dashboard Sprint4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D0299-E7BB-41B3-9627-C7AEA274F564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BA4A60-29AE-4D1C-9C08-A74E0F69D02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Roteiro" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Crie um Roteiro Ágil inserindo marcos ou atividades importantes na tabela Dados do Roteiro nesta planilha.
 O título desta planilha está na célula B1. 
@@ -240,13 +240,16 @@
     <t>UC 10A e UC10B  - Conexão de Implementação Java, Base de Dados e Interface Gráfica (10/03)</t>
   </si>
   <si>
-    <t xml:space="preserve">UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03) </t>
-  </si>
-  <si>
     <t>Caroline, Bárbara</t>
   </si>
   <si>
-    <t>Revisão geral na documentação dos Ucs implementados</t>
+    <t xml:space="preserve">UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03, 13/03, 14/03) </t>
+  </si>
+  <si>
+    <t>UC10A e UC10B - Revisão da Documentação (13/03)</t>
+  </si>
+  <si>
+    <t>Revisão de Procedimentos na BD (13/03 e 14/03)</t>
   </si>
 </sst>
 </file>
@@ -820,10 +823,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1391,11 +1394,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G19">
-  <autoFilter ref="B2:G19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G19">
-    <sortCondition ref="D3:D19"/>
-    <sortCondition ref="C3:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G20">
+  <autoFilter ref="B2:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G20">
+    <sortCondition ref="D3:D20"/>
+    <sortCondition ref="C3:C20"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Meta" totalsRowLabel="Total"/>
@@ -1694,10 +1697,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,12 +1765,12 @@
       <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="15"/>
       <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1857,94 +1860,94 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03)  - Responsável: Caroline, Bárbara</v>
+        <v>UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03, 13/03, 14/03)  - Responsável: Caroline, Bárbara</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>Revisão geral na documentação dos Ucs implementados - Responsável: Caroline</v>
+        <v>Revisão de Procedimentos na BD (13/03 e 14/03) - Responsável: Caroline, Bárbara</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline</v>
+        <v>UC10A e UC10B - Revisão da Documentação (13/03) - Responsável: Caroline</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC 12 - Responsável: Marta</v>
+        <v>UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara</v>
+        <v>UC 12 - Responsável: Marta</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1953,13 +1956,13 @@
       </c>
       <c r="C14" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>Apagar branches não usados (03/03) - Responsável: Bárbara</v>
+        <v>UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -1967,20 +1970,20 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>RESTful API (03/03) - Responsável: Bárbara, Ana</v>
+        <v>Apagar branches não usados (03/03) - Responsável: Bárbara</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1989,33 +1992,39 @@
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>RESTful API - service (04/03) - Responsável: Bárbara</v>
+        <v>RESTful API (03/03) - Responsável: Bárbara, Ana</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
+        <v>RESTful API - service (04/03) - Responsável: Bárbara</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -2025,9 +2034,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -2037,28 +2046,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v xml:space="preserve"> - Responsável: </v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 D3:D20" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"1 – Alto, 2 – Médio, 3 – Baixo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Atual, Curto Prazo, Futuro, Concluído"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F19 D3:D19" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"1 – Alto, 2 – Médio, 3 – Baixo"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -2079,7 +2100,7 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2138,14 +2159,13 @@
       </c>
       <c r="D3" s="13" t="str">
         <f t="array" ref="D3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03)  - Responsável: Caroline, Bárbara
+        <v xml:space="preserve">UC 12 - Responsável: Marta
 </v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="str">
         <f t="array" ref="F3">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$F$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B3)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">Revisão geral na documentação dos Ucs implementados - Responsável: Caroline
-</v>
+        <v/>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="str">
@@ -2163,7 +2183,7 @@
       </c>
       <c r="D4" s="13" t="str">
         <f t="array" ref="D4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 12 - Responsável: Marta
+        <v xml:space="preserve">RESTful API (03/03) - Responsável: Bárbara, Ana
 </v>
       </c>
       <c r="E4" s="13"/>
@@ -2186,7 +2206,7 @@
       </c>
       <c r="D5" s="13" t="str">
         <f t="array" ref="D5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API (03/03) - Responsável: Bárbara, Ana
+        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara
 </v>
       </c>
       <c r="E5" s="13"/>
@@ -2209,7 +2229,7 @@
       </c>
       <c r="D6" s="13" t="str">
         <f t="array" ref="D6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara
+        <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
       <c r="E6" s="13"/>
@@ -2232,8 +2252,7 @@
       </c>
       <c r="D7" s="13" t="str">
         <f t="array" ref="D7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável: 
-</v>
+        <v/>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="str">
@@ -2272,7 +2291,7 @@
     <row r="9" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="str">
         <f t="array" ref="B9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B9))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline 
+        <v xml:space="preserve">UC 10A e UC10B  -Debug e correções no modelo (11/03 e 12/03, 13/03, 14/03)  - Responsável: Caroline, Bárbara 
 </v>
       </c>
       <c r="D9" s="13" t="str">
@@ -2294,7 +2313,7 @@
     <row r="10" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="str">
         <f t="array" ref="B10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B10))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
+        <v xml:space="preserve">Revisão de Procedimentos na BD (13/03 e 14/03) - Responsável: Caroline, Bárbara 
 </v>
       </c>
       <c r="D10" s="13" t="str">
@@ -2316,7 +2335,7 @@
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="str">
         <f t="array" ref="B11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B11))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
+        <v xml:space="preserve">UC10A e UC10B - Revisão da Documentação (13/03) - Responsável: Caroline 
 </v>
       </c>
       <c r="D11" s="13" t="str">
@@ -2338,7 +2357,7 @@
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="str">
         <f t="array" ref="B12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B12))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável:  
+        <v xml:space="preserve">UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline 
 </v>
       </c>
       <c r="D12" s="13" t="str">
@@ -2360,7 +2379,8 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="str">
         <f t="array" ref="B13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B13))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D13" s="13" t="str">
         <f t="array" ref="D13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
@@ -2381,7 +2401,8 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="str">
         <f t="array" ref="B14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B14))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D14" s="13" t="str">
         <f t="array" ref="D14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
@@ -2402,7 +2423,8 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="str">
         <f t="array" ref="B15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B15))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve"> - Responsável:  
+</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="array" ref="D15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>

--- a/Documentação/Sprint 4/Dashboard Sprint4.xlsx
+++ b/Documentação/Sprint 4/Dashboard Sprint4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D0299-E7BB-41B3-9627-C7AEA274F564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE858132-E046-456E-B058-CEFE836E8E32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Roteiro" sheetId="3" r:id="rId1"/>
@@ -21,10 +21,19 @@
     <definedName name="Resultado">DadosDoRoteiro[Resultado]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Dados do Roteiro'!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="67">
   <si>
     <t>Crie um Roteiro Ágil inserindo marcos ou atividades importantes na tabela Dados do Roteiro nesta planilha.
 O título desta planilha está na célula B1. 
@@ -213,9 +222,6 @@
     <t>RESTful API - service (04/03)</t>
   </si>
   <si>
-    <t>RESTful API (03/03)</t>
-  </si>
-  <si>
     <t>Apagar branches não usados (03/03)</t>
   </si>
   <si>
@@ -247,6 +253,30 @@
   </si>
   <si>
     <t>Revisão geral na documentação dos Ucs implementados</t>
+  </si>
+  <si>
+    <t>RESTful API (03/03 - 06/03)</t>
+  </si>
+  <si>
+    <t>WS - Ligação à BD - Login/Logout (08-03)</t>
+  </si>
+  <si>
+    <t>WS - Login com timeout, /registerUser  - completo (09/03)</t>
+  </si>
+  <si>
+    <t>WS - registar organizações, /registerUserWithRoles (10/03)</t>
+  </si>
+  <si>
+    <t>Algoritmo de match (anúncios elegíveis), Code cleanup (11/03)</t>
+  </si>
+  <si>
+    <t>Filtro tarefas - fix, Classificacao - fix (12/03)</t>
+  </si>
+  <si>
+    <t>Login com enter, anúncios elegíveis, filtro tarefas - fixed (13/03)</t>
+  </si>
+  <si>
+    <t>Soft delete (14/03)</t>
   </si>
 </sst>
 </file>
@@ -254,10 +284,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -734,10 +764,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -820,60 +850,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="20% - Ênfase1" xfId="24" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="32" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="36" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="40" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="44" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="25" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="33" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="37" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="41" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="45" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="26" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="30" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="34" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="38" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="42" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="46" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="11" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Cor1" xfId="24" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Cor2" xfId="28" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Cor3" xfId="32" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Cor4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Cor5" xfId="40" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Cor6" xfId="44" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Cor1" xfId="25" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Cor2" xfId="29" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Cor3" xfId="33" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Cor4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Cor5" xfId="41" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Cor6" xfId="45" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Cor1" xfId="26" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Cor2" xfId="30" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Cor3" xfId="34" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Cor4" xfId="38" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Cor5" xfId="42" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Cor6" xfId="46" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Cabeçalho 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="16" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="18" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="17" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="23" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="39" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Célula Ligada" xfId="17" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cor1" xfId="23" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Cor2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Cor3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Cor4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Cor5" xfId="39" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Cor6" xfId="43" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Correto" xfId="11" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="14" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="12" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Moeda" xfId="8" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Moeda [0]" xfId="9" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutro" xfId="13" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Nota" xfId="20" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem" xfId="10" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="12" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Percentagem" xfId="10" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="15" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Separador de milhares [0]" xfId="7" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="19" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="21" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="22" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Verificar Célula" xfId="18" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="6" builtinId="3" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="16">
@@ -1391,11 +1421,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G19">
-  <autoFilter ref="B2:G19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G19">
-    <sortCondition ref="D3:D19"/>
-    <sortCondition ref="C3:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DadosDoRoteiro" displayName="DadosDoRoteiro" ref="B2:G26">
+  <autoFilter ref="B2:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:G26">
+    <sortCondition ref="D3:D26"/>
+    <sortCondition ref="C3:C26"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Meta" totalsRowLabel="Total"/>
@@ -1694,10 +1724,10 @@
     <tabColor theme="1" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,12 +1792,12 @@
       <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="15"/>
       <c r="I3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1797,7 +1827,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -1815,7 +1845,7 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -1833,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -1851,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -1869,10 +1899,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1887,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
@@ -1905,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
@@ -1913,7 +1943,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -1941,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
         <v>41</v>
@@ -1959,7 +1989,7 @@
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
         <v>41</v>
@@ -1967,17 +1997,17 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v>RESTful API (03/03) - Responsável: Bárbara, Ana</v>
+        <v>RESTful API (03/03 - 06/03) - Responsável: Bárbara, Ana</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>46</v>
@@ -1985,7 +2015,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
@@ -2001,63 +2031,168 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>WS - Ligação à BD - Login/Logout (08-03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
-        <v xml:space="preserve"> - Responsável: </v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>WS - Login com timeout, /registerUser  - completo (09/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="str">
         <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>WS - registar organizações, /registerUserWithRoles (10/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>Algoritmo de match (anúncios elegíveis), Code cleanup (11/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>Filtro tarefas - fix, Classificacao - fix (12/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>Login com enter, anúncios elegíveis, filtro tarefas - fixed (13/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v>Soft delete (14/03) - Responsável: Bárbara</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
         <v xml:space="preserve"> - Responsável: </v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v xml:space="preserve"> - Responsável: </v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CONCATENATE(DadosDoRoteiro[[#This Row],[Tarefa]]," - Responsável: ",DadosDoRoteiro[[#This Row],[Atribuído a ]])</f>
+        <v xml:space="preserve"> - Responsável: </v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B26" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Atual, Curto Prazo, Futuro, Concluído"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:F19 D3:D19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F26 D3:D26" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 – Alto, 2 – Médio, 3 – Baixo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2079,8 +2214,8 @@
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,7 +2298,7 @@
       </c>
       <c r="D4" s="13" t="str">
         <f t="array" ref="D4">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B4)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC 12 - Responsável: Marta
+        <v xml:space="preserve"> - Responsável: 
 </v>
       </c>
       <c r="E4" s="13"/>
@@ -2186,8 +2321,7 @@
       </c>
       <c r="D5" s="13" t="str">
         <f t="array" ref="D5">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B5)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API (03/03) - Responsável: Bárbara, Ana
-</v>
+        <v/>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="str">
@@ -2209,8 +2343,7 @@
       </c>
       <c r="D6" s="13" t="str">
         <f t="array" ref="D6">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B6)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara
-</v>
+        <v/>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="str">
@@ -2232,8 +2365,7 @@
       </c>
       <c r="D7" s="13" t="str">
         <f t="array" ref="D7">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B7)))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável: 
-</v>
+        <v/>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="str">
@@ -2247,7 +2379,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="str">
         <f t="array" ref="B8">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B8)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B8))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 10A e UC10B  - Conexão de Implementação Java, Base de Dados e Interface Gráfica (10/03) - Responsável: Caroline 
@@ -2269,7 +2401,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="str">
         <f t="array" ref="B9">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B9)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B9))))&amp;CHAR(10),"")</f>
         <v xml:space="preserve">UC 11 - Documentação (01/03 e 03/03) - Responsável: Caroline 
@@ -2291,10 +2423,10 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="str">
         <f t="array" ref="B10">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B10)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B10))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
+        <v xml:space="preserve">UC 12 - Responsável: Marta 
 </v>
       </c>
       <c r="D10" s="13" t="str">
@@ -2316,7 +2448,7 @@
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="str">
         <f t="array" ref="B11">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B11)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B11))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
+        <v xml:space="preserve">UC7a, UC7b - Documentação (02/03) - Responsável: Bárbara 
 </v>
       </c>
       <c r="D11" s="13" t="str">
@@ -2335,10 +2467,10 @@
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="str">
         <f t="array" ref="B12">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B12)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B12))))&amp;CHAR(10),"")</f>
-        <v xml:space="preserve"> - Responsável:  
+        <v xml:space="preserve">Apagar branches não usados (03/03) - Responsável: Bárbara 
 </v>
       </c>
       <c r="D12" s="13" t="str">
@@ -2357,10 +2489,11 @@
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="str">
         <f t="array" ref="B13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B13))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">RESTful API (03/03 - 06/03) - Responsável: Bárbara, Ana 
+</v>
       </c>
       <c r="D13" s="13" t="str">
         <f t="array" ref="D13">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B13)))&amp;CHAR(10),"")</f>
@@ -2378,10 +2511,11 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="str">
         <f t="array" ref="B14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B14))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">RESTful API - service (04/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D14" s="13" t="str">
         <f t="array" ref="D14">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B14)))&amp;CHAR(10),"")</f>
@@ -2399,10 +2533,11 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="str">
         <f t="array" ref="B15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B15))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">WS - Ligação à BD - Login/Logout (08-03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D15" s="13" t="str">
         <f t="array" ref="D15">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B15)))&amp;CHAR(10),"")</f>
@@ -2420,10 +2555,11 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="str">
         <f t="array" ref="B16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B16))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">WS - Login com timeout, /registerUser  - completo (09/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D16" s="13" t="str">
         <f t="array" ref="D16">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B16)))&amp;CHAR(10),"")</f>
@@ -2441,10 +2577,11 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="str">
         <f t="array" ref="B17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B17))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">WS - registar organizações, /registerUserWithRoles (10/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D17" s="13" t="str">
         <f t="array" ref="D17">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B17)))&amp;CHAR(10),"")</f>
@@ -2462,10 +2599,11 @@
       </c>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="str">
         <f t="array" ref="B18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B18))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Algoritmo de match (anúncios elegíveis), Code cleanup (11/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D18" s="13" t="str">
         <f t="array" ref="D18">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B18)))&amp;CHAR(10),"")</f>
@@ -2483,10 +2621,11 @@
       </c>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="str">
         <f t="array" ref="B19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B19))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Filtro tarefas - fix, Classificacao - fix (12/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D19" s="13" t="str">
         <f t="array" ref="D19">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B19)))&amp;CHAR(10),"")</f>
@@ -2504,10 +2643,11 @@
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="str">
         <f t="array" ref="B20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B20))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Login com enter, anúncios elegíveis, filtro tarefas - fixed (13/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D20" s="13" t="str">
         <f t="array" ref="D20">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B20)))&amp;CHAR(10),"")</f>
@@ -2525,11 +2665,12 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="14" t="str">
         <f t="array" ref="B21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B21))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve">Soft delete (14/03) - Responsável: Bárbara 
+</v>
       </c>
       <c r="D21" s="13" t="str">
         <f t="array" ref="D21">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B21)))&amp;CHAR(10),"")</f>
@@ -2544,10 +2685,11 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="str">
         <f t="array" ref="B22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$B$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;" "&amp;CHAR(10)&amp;(INDEX(Resultado,SMALL(IF(Meta=$B$2,ROW(Resultado)-MIN(ROW(Resultado))+1),ROWS($B$3:B22))))&amp;CHAR(10),"")</f>
-        <v/>
+        <v xml:space="preserve"> - Responsável:  
+</v>
       </c>
       <c r="D22" s="13" t="str">
         <f t="array" ref="D22">IFERROR(INDEX(Atividade,SMALL(IF(Meta=$D$2,ROW(Atividade)-MIN(ROW(Atividade))+1),ROWS($B$3:B22)))&amp;CHAR(10),"")</f>
